--- a/Management/ALL DIVISIONS/Production_Task_Template.xlsx
+++ b/Management/ALL DIVISIONS/Production_Task_Template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Repositories\GDC2017Project\Management\ALL DIVISIONS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\GDC2017Project\GDC2017Project\Management\ALL DIVISIONS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="25920" windowHeight="8775"/>
+    <workbookView xWindow="120" yWindow="110" windowWidth="25920" windowHeight="8780" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Production Backlog Form" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="91">
   <si>
     <t>Production Task Chart</t>
   </si>
@@ -161,9 +161,6 @@
     <t>Feature</t>
   </si>
   <si>
-    <t>Additional note to hoever works on the feature</t>
-  </si>
-  <si>
     <t>Story, Programming, Art, Level Design, or Sound</t>
   </si>
   <si>
@@ -288,6 +285,18 @@
   </si>
   <si>
     <t>Sprint #4 Backlog</t>
+  </si>
+  <si>
+    <t>Additional note to [ching cheng chong] works on the feature</t>
+  </si>
+  <si>
+    <t>2017 NOV 10</t>
+  </si>
+  <si>
+    <t>INITIAL</t>
+  </si>
+  <si>
+    <t>Type detailed task description(Not too long, but enough to understand)</t>
   </si>
 </sst>
 </file>
@@ -720,14 +729,29 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -762,29 +786,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1512,7 +1521,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5</c:v>
@@ -1579,7 +1588,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5</c:v>
@@ -6568,26 +6577,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="18" customWidth="1"/>
-    <col min="2" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="1.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="1"/>
-    <col min="9" max="9" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="1"/>
-    <col min="11" max="11" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="40.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.7109375" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="1.7265625" style="18" customWidth="1"/>
+    <col min="2" max="6" width="15.7265625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="1.7265625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1796875" style="1"/>
+    <col min="9" max="9" width="13.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1796875" style="1"/>
+    <col min="11" max="11" width="23.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="1.7265625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
@@ -6602,24 +6611,24 @@
       <c r="M1" s="18"/>
       <c r="N1" s="18"/>
     </row>
-    <row r="2" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="34" t="s">
+    <row r="2" spans="2:14" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="36"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="55"/>
       <c r="N2" s="18"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="31" t="s">
         <v>6</v>
       </c>
@@ -6638,35 +6647,35 @@
       <c r="M3" s="33"/>
       <c r="N3" s="18"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B4" s="48" t="s">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="52" t="s">
+      <c r="C4" s="35"/>
+      <c r="D4" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="53"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="39"/>
       <c r="G4" s="19"/>
-      <c r="H4" s="37" t="s">
+      <c r="H4" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="39"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="44"/>
       <c r="N4" s="18"/>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B5" s="48" t="s">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="53"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="39"/>
       <c r="G5" s="19"/>
       <c r="H5" s="8" t="s">
         <v>27</v>
@@ -6688,14 +6697,14 @@
       </c>
       <c r="N5" s="18"/>
     </row>
-    <row r="6" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="50" t="s">
+    <row r="6" spans="2:14" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="55"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="41"/>
       <c r="G6" s="19"/>
       <c r="H6" s="16">
         <v>1</v>
@@ -6710,14 +6719,14 @@
         <v>43</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="M6" s="10" t="s">
         <v>42</v>
       </c>
       <c r="N6" s="18"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="31" t="s">
         <v>7</v>
       </c>
@@ -6742,16 +6751,16 @@
       </c>
       <c r="N7" s="18"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B8" s="48" t="s">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="52"/>
-      <c r="F8" s="53"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="38"/>
+      <c r="F8" s="39"/>
       <c r="G8" s="19"/>
       <c r="H8" s="16">
         <v>3</v>
@@ -6769,14 +6778,14 @@
       </c>
       <c r="N8" s="18"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B9" s="48" t="s">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="53"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="39"/>
       <c r="G9" s="19"/>
       <c r="H9" s="16">
         <v>4</v>
@@ -6792,14 +6801,14 @@
       </c>
       <c r="N9" s="18"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B10" s="48" t="s">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="53"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="39"/>
       <c r="G10" s="19"/>
       <c r="H10" s="16">
         <v>5</v>
@@ -6815,14 +6824,14 @@
       </c>
       <c r="N10" s="18"/>
     </row>
-    <row r="11" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="50" t="s">
+    <row r="11" spans="2:14" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="55"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="41"/>
       <c r="G11" s="19"/>
       <c r="H11" s="16">
         <v>6</v>
@@ -6836,7 +6845,7 @@
       </c>
       <c r="N11" s="18"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="31" t="s">
         <v>1</v>
       </c>
@@ -6855,7 +6864,7 @@
       <c r="M12" s="10"/>
       <c r="N12" s="18"/>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="6"/>
       <c r="C13" s="3" t="s">
         <v>2</v>
@@ -6880,7 +6889,7 @@
       <c r="M13" s="10"/>
       <c r="N13" s="18"/>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8">
         <v>1</v>
       </c>
@@ -6901,7 +6910,7 @@
       <c r="M14" s="10"/>
       <c r="N14" s="18"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="8">
         <v>2</v>
       </c>
@@ -6920,7 +6929,7 @@
       <c r="M15" s="10"/>
       <c r="N15" s="18"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8">
         <v>3</v>
       </c>
@@ -6929,17 +6938,17 @@
       <c r="E16" s="4"/>
       <c r="F16" s="10"/>
       <c r="G16" s="19"/>
-      <c r="H16" s="37" t="s">
+      <c r="H16" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="39"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="44"/>
       <c r="N16" s="18"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="8">
         <v>4</v>
       </c>
@@ -6968,7 +6977,7 @@
       </c>
       <c r="N17" s="18"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="8">
         <v>5</v>
       </c>
@@ -6987,7 +6996,7 @@
       <c r="M18" s="10"/>
       <c r="N18" s="18"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="8">
         <v>6</v>
       </c>
@@ -7006,7 +7015,7 @@
       <c r="M19" s="10"/>
       <c r="N19" s="18"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="8">
         <v>7</v>
       </c>
@@ -7025,7 +7034,7 @@
       <c r="M20" s="10"/>
       <c r="N20" s="18"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="8">
         <v>8</v>
       </c>
@@ -7044,7 +7053,7 @@
       <c r="M21" s="10"/>
       <c r="N21" s="18"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="8">
         <v>9</v>
       </c>
@@ -7063,7 +7072,7 @@
       <c r="M22" s="10"/>
       <c r="N22" s="18"/>
     </row>
-    <row r="23" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="11">
         <v>10</v>
       </c>
@@ -7082,7 +7091,7 @@
       <c r="M23" s="10"/>
       <c r="N23" s="18"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="31" t="s">
         <v>8</v>
       </c>
@@ -7101,14 +7110,14 @@
       <c r="M24" s="10"/>
       <c r="N24" s="18"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B25" s="40" t="s">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="42"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="47"/>
       <c r="G25" s="19"/>
       <c r="H25" s="16">
         <v>8</v>
@@ -7120,12 +7129,12 @@
       <c r="M25" s="10"/>
       <c r="N25" s="18"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B26" s="40"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="42"/>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="45"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="47"/>
       <c r="G26" s="19"/>
       <c r="H26" s="16">
         <v>9</v>
@@ -7137,12 +7146,12 @@
       <c r="M26" s="10"/>
       <c r="N26" s="18"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B27" s="40"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="42"/>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="45"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="47"/>
       <c r="G27" s="19"/>
       <c r="H27" s="16">
         <v>10</v>
@@ -7154,29 +7163,29 @@
       <c r="M27" s="10"/>
       <c r="N27" s="18"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B28" s="40"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="42"/>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="45"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="47"/>
       <c r="G28" s="19"/>
-      <c r="H28" s="37" t="s">
+      <c r="H28" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="39"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="44"/>
       <c r="N28" s="18"/>
     </row>
-    <row r="29" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="43"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="45"/>
+    <row r="29" spans="2:14" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="48"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="50"/>
       <c r="G29" s="19"/>
       <c r="H29" s="8" t="s">
         <v>27</v>
@@ -7198,7 +7207,7 @@
       </c>
       <c r="N29" s="18"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="31" t="s">
         <v>15</v>
       </c>
@@ -7217,11 +7226,11 @@
       <c r="M30" s="10"/>
       <c r="N30" s="18"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B31" s="46" t="s">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="47"/>
+      <c r="C31" s="52"/>
       <c r="D31" s="4">
         <f>SUM(D34,D37,D40,D43)</f>
         <v>5</v>
@@ -7245,14 +7254,14 @@
       <c r="M31" s="10"/>
       <c r="N31" s="18"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B32" s="37" t="s">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="39"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="44"/>
       <c r="G32" s="19"/>
       <c r="H32" s="16">
         <v>3</v>
@@ -7264,7 +7273,7 @@
       <c r="M32" s="10"/>
       <c r="N32" s="18"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
         <v>18</v>
       </c>
@@ -7289,7 +7298,7 @@
       <c r="M33" s="10"/>
       <c r="N33" s="18"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="14" t="s">
         <v>19</v>
       </c>
@@ -7317,14 +7326,14 @@
       <c r="M34" s="10"/>
       <c r="N34" s="18"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B35" s="37" t="s">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="39"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="44"/>
       <c r="G35" s="19"/>
       <c r="H35" s="16">
         <v>6</v>
@@ -7336,7 +7345,7 @@
       <c r="M35" s="10"/>
       <c r="N35" s="18"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="14" t="s">
         <v>18</v>
       </c>
@@ -7361,7 +7370,7 @@
       <c r="M36" s="10"/>
       <c r="N36" s="18"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
         <v>19</v>
       </c>
@@ -7389,14 +7398,14 @@
       <c r="M37" s="10"/>
       <c r="N37" s="18"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B38" s="37" t="s">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="39"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="44"/>
       <c r="G38" s="19"/>
       <c r="H38" s="16">
         <v>9</v>
@@ -7408,7 +7417,7 @@
       <c r="M38" s="10"/>
       <c r="N38" s="18"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
         <v>18</v>
       </c>
@@ -7433,7 +7442,7 @@
       <c r="M39" s="10"/>
       <c r="N39" s="18"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="14" t="s">
         <v>19</v>
       </c>
@@ -7451,24 +7460,24 @@
         <v>0</v>
       </c>
       <c r="G40" s="19"/>
-      <c r="H40" s="37" t="s">
+      <c r="H40" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="I40" s="38"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="39"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="43"/>
+      <c r="M40" s="44"/>
       <c r="N40" s="18"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B41" s="37" t="s">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B41" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="39"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="44"/>
       <c r="G41" s="19"/>
       <c r="H41" s="8" t="s">
         <v>27</v>
@@ -7490,7 +7499,7 @@
       </c>
       <c r="N41" s="18"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="14" t="s">
         <v>18</v>
       </c>
@@ -7515,7 +7524,7 @@
       <c r="M42" s="10"/>
       <c r="N42" s="18"/>
     </row>
-    <row r="43" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="15" t="s">
         <v>19</v>
       </c>
@@ -7543,7 +7552,7 @@
       <c r="M43" s="10"/>
       <c r="N43" s="18"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="G44" s="19"/>
       <c r="H44" s="16">
         <v>3</v>
@@ -7555,7 +7564,7 @@
       <c r="M44" s="10"/>
       <c r="N44" s="18"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="G45" s="19"/>
       <c r="H45" s="16">
         <v>4</v>
@@ -7567,7 +7576,7 @@
       <c r="M45" s="10"/>
       <c r="N45" s="18"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="G46" s="19"/>
       <c r="H46" s="16">
         <v>5</v>
@@ -7579,7 +7588,7 @@
       <c r="M46" s="10"/>
       <c r="N46" s="18"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="G47" s="19"/>
       <c r="H47" s="16">
         <v>6</v>
@@ -7591,7 +7600,7 @@
       <c r="M47" s="10"/>
       <c r="N47" s="18"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="G48" s="19"/>
       <c r="H48" s="16">
         <v>7</v>
@@ -7603,7 +7612,7 @@
       <c r="M48" s="10"/>
       <c r="N48" s="18"/>
     </row>
-    <row r="49" spans="7:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G49" s="19"/>
       <c r="H49" s="16">
         <v>8</v>
@@ -7615,7 +7624,7 @@
       <c r="M49" s="10"/>
       <c r="N49" s="18"/>
     </row>
-    <row r="50" spans="7:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G50" s="19"/>
       <c r="H50" s="16">
         <v>9</v>
@@ -7627,7 +7636,7 @@
       <c r="M50" s="10"/>
       <c r="N50" s="18"/>
     </row>
-    <row r="51" spans="7:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="7:14" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G51" s="19"/>
       <c r="H51" s="17">
         <v>10</v>
@@ -7639,7 +7648,7 @@
       <c r="M51" s="13"/>
       <c r="N51" s="18"/>
     </row>
-    <row r="52" spans="7:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G52" s="18"/>
       <c r="H52" s="18"/>
       <c r="I52" s="18"/>
@@ -7649,7 +7658,7 @@
       <c r="M52" s="18"/>
       <c r="N52" s="18"/>
     </row>
-    <row r="53" spans="7:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G53" s="18"/>
       <c r="H53" s="18"/>
       <c r="I53" s="18"/>
@@ -7659,7 +7668,7 @@
       <c r="M53" s="18"/>
       <c r="N53" s="18"/>
     </row>
-    <row r="54" spans="7:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G54" s="18"/>
       <c r="H54" s="18"/>
       <c r="I54" s="18"/>
@@ -7669,7 +7678,7 @@
       <c r="M54" s="18"/>
       <c r="N54" s="18"/>
     </row>
-    <row r="55" spans="7:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G55" s="18"/>
       <c r="H55" s="18"/>
       <c r="I55" s="18"/>
@@ -7679,7 +7688,7 @@
       <c r="M55" s="18"/>
       <c r="N55" s="18"/>
     </row>
-    <row r="56" spans="7:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G56" s="18"/>
       <c r="H56" s="18"/>
       <c r="I56" s="18"/>
@@ -7689,7 +7698,7 @@
       <c r="M56" s="18"/>
       <c r="N56" s="18"/>
     </row>
-    <row r="57" spans="7:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G57" s="18"/>
       <c r="H57" s="18"/>
       <c r="I57" s="18"/>
@@ -7699,7 +7708,7 @@
       <c r="M57" s="18"/>
       <c r="N57" s="18"/>
     </row>
-    <row r="58" spans="7:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G58" s="18"/>
       <c r="H58" s="18"/>
       <c r="I58" s="18"/>
@@ -7709,7 +7718,7 @@
       <c r="M58" s="18"/>
       <c r="N58" s="18"/>
     </row>
-    <row r="59" spans="7:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G59" s="18"/>
       <c r="H59" s="18"/>
       <c r="I59" s="18"/>
@@ -7719,7 +7728,7 @@
       <c r="M59" s="18"/>
       <c r="N59" s="18"/>
     </row>
-    <row r="60" spans="7:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G60" s="18"/>
       <c r="H60" s="18"/>
       <c r="I60" s="18"/>
@@ -7731,21 +7740,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F29"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B31:C31"/>
     <mergeCell ref="H3:M3"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="H40:M40"/>
@@ -7762,6 +7756,21 @@
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="D11:F11"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F29"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
   </mergeCells>
   <conditionalFormatting sqref="E14:E23">
     <cfRule type="duplicateValues" dxfId="16" priority="5"/>
@@ -7792,20 +7801,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N119"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="2" customWidth="1"/>
-    <col min="2" max="12" width="15.7109375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="59.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.7109375" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="1.7265625" style="2" customWidth="1"/>
+    <col min="2" max="12" width="15.7265625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="59.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="1.7265625" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18"/>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -7821,10 +7830,10 @@
       <c r="M1" s="18"/>
       <c r="N1" s="18"/>
     </row>
-    <row r="2" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18"/>
       <c r="B2" s="59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="60"/>
       <c r="D2" s="61"/>
@@ -7839,10 +7848,10 @@
       <c r="M2" s="62"/>
       <c r="N2" s="18"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="18"/>
       <c r="B3" s="31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="33"/>
       <c r="D3" s="18"/>
@@ -7857,13 +7866,13 @@
       <c r="M3" s="18"/>
       <c r="N3" s="18"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="18"/>
       <c r="B4" s="29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
@@ -7877,13 +7886,13 @@
       <c r="M4" s="18"/>
       <c r="N4" s="18"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
       <c r="B5" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
@@ -7897,13 +7906,13 @@
       <c r="M5" s="18"/>
       <c r="N5" s="18"/>
     </row>
-    <row r="6" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="18"/>
@@ -7917,10 +7926,10 @@
       <c r="M6" s="18"/>
       <c r="N6" s="18"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
       <c r="B7" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" s="32"/>
       <c r="D7" s="32"/>
@@ -7935,25 +7944,25 @@
       <c r="M7" s="18"/>
       <c r="N7" s="18"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
       <c r="B8" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
@@ -7963,29 +7972,29 @@
       <c r="M8" s="18"/>
       <c r="N8" s="18"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
       <c r="B9" s="21">
         <v>1</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" s="22">
         <f>COUNTIF($E$19:$E$118,B9)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" s="22">
         <f>COUNTA(B19:B118)-D9</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F9" s="22">
         <f>COUNTIFS($K$19:$K$118,B9,$J$19:$J$118,"O")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" s="23">
         <f>COUNTA(B19:B118)-F9</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
@@ -7995,17 +8004,17 @@
       <c r="M9" s="18"/>
       <c r="N9" s="18"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
       <c r="B10" s="21">
         <v>2</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D10" s="22">
         <f t="shared" ref="D10:D15" si="0">COUNTIF($E$19:$E$118,B10)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="22">
         <f>E9-D10</f>
@@ -8013,7 +8022,7 @@
       </c>
       <c r="F10" s="22">
         <f t="shared" ref="F10:F15" si="1">COUNTIFS($K$19:$K$118,B10,$J$19:$J$118,"O")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="23">
         <f>G9-F10</f>
@@ -8027,13 +8036,13 @@
       <c r="M10" s="18"/>
       <c r="N10" s="18"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
       <c r="B11" s="21">
         <v>3</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D11" s="22">
         <f t="shared" si="0"/>
@@ -8059,13 +8068,13 @@
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="21">
         <v>4</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D12" s="22">
         <f t="shared" si="0"/>
@@ -8091,13 +8100,13 @@
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
       <c r="B13" s="21">
         <v>5</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D13" s="22">
         <f t="shared" si="0"/>
@@ -8123,13 +8132,13 @@
       <c r="M13" s="18"/>
       <c r="N13" s="18"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
       <c r="B14" s="21">
         <v>6</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D14" s="22">
         <f t="shared" si="0"/>
@@ -8155,13 +8164,13 @@
       <c r="M14" s="18"/>
       <c r="N14" s="18"/>
     </row>
-    <row r="15" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18"/>
       <c r="B15" s="24">
         <v>7</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D15" s="25">
         <f t="shared" si="0"/>
@@ -8187,10 +8196,10 @@
       <c r="M15" s="18"/>
       <c r="N15" s="18"/>
     </row>
-    <row r="16" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18"/>
       <c r="B16" s="63" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C16" s="64"/>
       <c r="D16" s="64"/>
@@ -8205,10 +8214,10 @@
       <c r="M16" s="66"/>
       <c r="N16" s="18"/>
     </row>
-    <row r="17" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
       <c r="B17" s="56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" s="57"/>
       <c r="D17" s="57"/>
@@ -8223,122 +8232,122 @@
       <c r="M17" s="58"/>
       <c r="N17" s="18"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
       <c r="B18" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M18" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="N18" s="18"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
       <c r="B19" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>66</v>
-      </c>
+      <c r="D19" s="22"/>
       <c r="E19" s="22">
         <v>1</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I19" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J19" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K19" s="22">
         <v>1</v>
       </c>
       <c r="L19" s="22" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="M19" s="23" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="N19" s="18"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
       <c r="B20" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="22"/>
       <c r="D20" s="22"/>
       <c r="E20" s="22">
+        <v>1</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="I20" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="J20" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="K20" s="22">
         <v>2</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="H20" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="I20" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="J20" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="K20" s="22">
-        <v>1</v>
       </c>
       <c r="L20" s="22"/>
       <c r="M20" s="23"/>
       <c r="N20" s="18"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
       <c r="B21" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
@@ -8346,13 +8355,13 @@
         <v>3</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I21" s="22"/>
       <c r="J21" s="22"/>
@@ -8361,10 +8370,10 @@
       <c r="M21" s="23"/>
       <c r="N21" s="18"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
       <c r="B22" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
@@ -8372,10 +8381,10 @@
         <v>4</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H22" s="22"/>
       <c r="I22" s="22"/>
@@ -8385,10 +8394,10 @@
       <c r="M22" s="23"/>
       <c r="N22" s="18"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
       <c r="B23" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
@@ -8396,7 +8405,7 @@
         <v>5</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G23" s="22"/>
       <c r="H23" s="22"/>
@@ -8407,10 +8416,10 @@
       <c r="M23" s="23"/>
       <c r="N23" s="18"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="18"/>
       <c r="B24" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
@@ -8418,7 +8427,7 @@
         <v>6</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G24" s="22"/>
       <c r="H24" s="22"/>
@@ -8429,10 +8438,10 @@
       <c r="M24" s="23"/>
       <c r="N24" s="18"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
       <c r="B25" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
@@ -8440,7 +8449,7 @@
         <v>7</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G25" s="22"/>
       <c r="H25" s="22"/>
@@ -8451,7 +8460,7 @@
       <c r="M25" s="23"/>
       <c r="N25" s="18"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="18"/>
       <c r="B26" s="21"/>
       <c r="C26" s="22"/>
@@ -8467,7 +8476,7 @@
       <c r="M26" s="23"/>
       <c r="N26" s="18"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
       <c r="B27" s="21"/>
       <c r="C27" s="22"/>
@@ -8483,7 +8492,7 @@
       <c r="M27" s="23"/>
       <c r="N27" s="18"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="18"/>
       <c r="B28" s="21"/>
       <c r="C28" s="22"/>
@@ -8499,7 +8508,7 @@
       <c r="M28" s="23"/>
       <c r="N28" s="18"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="18"/>
       <c r="B29" s="21"/>
       <c r="C29" s="22"/>
@@ -8515,7 +8524,7 @@
       <c r="M29" s="23"/>
       <c r="N29" s="18"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
       <c r="B30" s="21"/>
       <c r="C30" s="22"/>
@@ -8531,7 +8540,7 @@
       <c r="M30" s="23"/>
       <c r="N30" s="18"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="18"/>
       <c r="B31" s="21"/>
       <c r="C31" s="22"/>
@@ -8547,7 +8556,7 @@
       <c r="M31" s="23"/>
       <c r="N31" s="18"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="18"/>
       <c r="B32" s="21"/>
       <c r="C32" s="22"/>
@@ -8563,7 +8572,7 @@
       <c r="M32" s="23"/>
       <c r="N32" s="18"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="18"/>
       <c r="B33" s="21"/>
       <c r="C33" s="22"/>
@@ -8579,7 +8588,7 @@
       <c r="M33" s="23"/>
       <c r="N33" s="18"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
       <c r="B34" s="21"/>
       <c r="C34" s="22"/>
@@ -8595,7 +8604,7 @@
       <c r="M34" s="23"/>
       <c r="N34" s="18"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="18"/>
       <c r="B35" s="21"/>
       <c r="C35" s="22"/>
@@ -8611,7 +8620,7 @@
       <c r="M35" s="23"/>
       <c r="N35" s="18"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="18"/>
       <c r="B36" s="21"/>
       <c r="C36" s="22"/>
@@ -8627,7 +8636,7 @@
       <c r="M36" s="23"/>
       <c r="N36" s="18"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="18"/>
       <c r="B37" s="21"/>
       <c r="C37" s="22"/>
@@ -8643,7 +8652,7 @@
       <c r="M37" s="23"/>
       <c r="N37" s="18"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="18"/>
       <c r="B38" s="21"/>
       <c r="C38" s="22"/>
@@ -8659,7 +8668,7 @@
       <c r="M38" s="23"/>
       <c r="N38" s="18"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="18"/>
       <c r="B39" s="21"/>
       <c r="C39" s="22"/>
@@ -8675,7 +8684,7 @@
       <c r="M39" s="23"/>
       <c r="N39" s="18"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="18"/>
       <c r="B40" s="21"/>
       <c r="C40" s="22"/>
@@ -8691,7 +8700,7 @@
       <c r="M40" s="23"/>
       <c r="N40" s="18"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="18"/>
       <c r="B41" s="21"/>
       <c r="C41" s="22"/>
@@ -8707,7 +8716,7 @@
       <c r="M41" s="23"/>
       <c r="N41" s="18"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="18"/>
       <c r="B42" s="21"/>
       <c r="C42" s="22"/>
@@ -8723,7 +8732,7 @@
       <c r="M42" s="23"/>
       <c r="N42" s="18"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="18"/>
       <c r="B43" s="21"/>
       <c r="C43" s="22"/>
@@ -8739,7 +8748,7 @@
       <c r="M43" s="23"/>
       <c r="N43" s="18"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="18"/>
       <c r="B44" s="21"/>
       <c r="C44" s="22"/>
@@ -8755,7 +8764,7 @@
       <c r="M44" s="23"/>
       <c r="N44" s="18"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="18"/>
       <c r="B45" s="21"/>
       <c r="C45" s="22"/>
@@ -8771,7 +8780,7 @@
       <c r="M45" s="23"/>
       <c r="N45" s="18"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="18"/>
       <c r="B46" s="21"/>
       <c r="C46" s="22"/>
@@ -8787,7 +8796,7 @@
       <c r="M46" s="23"/>
       <c r="N46" s="18"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="18"/>
       <c r="B47" s="21"/>
       <c r="C47" s="22"/>
@@ -8803,7 +8812,7 @@
       <c r="M47" s="23"/>
       <c r="N47" s="18"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="18"/>
       <c r="B48" s="21"/>
       <c r="C48" s="22"/>
@@ -8819,7 +8828,7 @@
       <c r="M48" s="23"/>
       <c r="N48" s="18"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="18"/>
       <c r="B49" s="21"/>
       <c r="C49" s="22"/>
@@ -8835,7 +8844,7 @@
       <c r="M49" s="23"/>
       <c r="N49" s="18"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="18"/>
       <c r="B50" s="21"/>
       <c r="C50" s="22"/>
@@ -8851,7 +8860,7 @@
       <c r="M50" s="23"/>
       <c r="N50" s="18"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="18"/>
       <c r="B51" s="21"/>
       <c r="C51" s="22"/>
@@ -8867,7 +8876,7 @@
       <c r="M51" s="23"/>
       <c r="N51" s="18"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="18"/>
       <c r="B52" s="21"/>
       <c r="C52" s="22"/>
@@ -8883,7 +8892,7 @@
       <c r="M52" s="23"/>
       <c r="N52" s="18"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="18"/>
       <c r="B53" s="21"/>
       <c r="C53" s="22"/>
@@ -8899,7 +8908,7 @@
       <c r="M53" s="23"/>
       <c r="N53" s="18"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="18"/>
       <c r="B54" s="21"/>
       <c r="C54" s="22"/>
@@ -8915,7 +8924,7 @@
       <c r="M54" s="23"/>
       <c r="N54" s="18"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="18"/>
       <c r="B55" s="21"/>
       <c r="C55" s="22"/>
@@ -8931,7 +8940,7 @@
       <c r="M55" s="23"/>
       <c r="N55" s="18"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="18"/>
       <c r="B56" s="21"/>
       <c r="C56" s="22"/>
@@ -8947,7 +8956,7 @@
       <c r="M56" s="23"/>
       <c r="N56" s="18"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="18"/>
       <c r="B57" s="21"/>
       <c r="C57" s="22"/>
@@ -8963,7 +8972,7 @@
       <c r="M57" s="23"/>
       <c r="N57" s="18"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="18"/>
       <c r="B58" s="21"/>
       <c r="C58" s="22"/>
@@ -8979,7 +8988,7 @@
       <c r="M58" s="23"/>
       <c r="N58" s="18"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="18"/>
       <c r="B59" s="21"/>
       <c r="C59" s="22"/>
@@ -8995,7 +9004,7 @@
       <c r="M59" s="23"/>
       <c r="N59" s="18"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="18"/>
       <c r="B60" s="21"/>
       <c r="C60" s="22"/>
@@ -9011,7 +9020,7 @@
       <c r="M60" s="23"/>
       <c r="N60" s="18"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="18"/>
       <c r="B61" s="21"/>
       <c r="C61" s="22"/>
@@ -9027,7 +9036,7 @@
       <c r="M61" s="23"/>
       <c r="N61" s="18"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="18"/>
       <c r="B62" s="21"/>
       <c r="C62" s="22"/>
@@ -9043,7 +9052,7 @@
       <c r="M62" s="23"/>
       <c r="N62" s="18"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="18"/>
       <c r="B63" s="21"/>
       <c r="C63" s="22"/>
@@ -9059,7 +9068,7 @@
       <c r="M63" s="23"/>
       <c r="N63" s="18"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="18"/>
       <c r="B64" s="21"/>
       <c r="C64" s="22"/>
@@ -9075,7 +9084,7 @@
       <c r="M64" s="23"/>
       <c r="N64" s="18"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="18"/>
       <c r="B65" s="21"/>
       <c r="C65" s="22"/>
@@ -9091,7 +9100,7 @@
       <c r="M65" s="23"/>
       <c r="N65" s="18"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="18"/>
       <c r="B66" s="21"/>
       <c r="C66" s="22"/>
@@ -9107,7 +9116,7 @@
       <c r="M66" s="23"/>
       <c r="N66" s="18"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="18"/>
       <c r="B67" s="21"/>
       <c r="C67" s="22"/>
@@ -9123,7 +9132,7 @@
       <c r="M67" s="23"/>
       <c r="N67" s="18"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="18"/>
       <c r="B68" s="21"/>
       <c r="C68" s="22"/>
@@ -9139,7 +9148,7 @@
       <c r="M68" s="23"/>
       <c r="N68" s="18"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="18"/>
       <c r="B69" s="21"/>
       <c r="C69" s="22"/>
@@ -9155,7 +9164,7 @@
       <c r="M69" s="23"/>
       <c r="N69" s="18"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="18"/>
       <c r="B70" s="21"/>
       <c r="C70" s="22"/>
@@ -9171,7 +9180,7 @@
       <c r="M70" s="23"/>
       <c r="N70" s="18"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="18"/>
       <c r="B71" s="21"/>
       <c r="C71" s="22"/>
@@ -9187,7 +9196,7 @@
       <c r="M71" s="23"/>
       <c r="N71" s="18"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="18"/>
       <c r="B72" s="21"/>
       <c r="C72" s="22"/>
@@ -9203,7 +9212,7 @@
       <c r="M72" s="23"/>
       <c r="N72" s="18"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="18"/>
       <c r="B73" s="21"/>
       <c r="C73" s="22"/>
@@ -9219,7 +9228,7 @@
       <c r="M73" s="23"/>
       <c r="N73" s="18"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="18"/>
       <c r="B74" s="21"/>
       <c r="C74" s="22"/>
@@ -9235,7 +9244,7 @@
       <c r="M74" s="23"/>
       <c r="N74" s="18"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="18"/>
       <c r="B75" s="21"/>
       <c r="C75" s="22"/>
@@ -9251,7 +9260,7 @@
       <c r="M75" s="23"/>
       <c r="N75" s="18"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="18"/>
       <c r="B76" s="21"/>
       <c r="C76" s="22"/>
@@ -9267,7 +9276,7 @@
       <c r="M76" s="23"/>
       <c r="N76" s="18"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="18"/>
       <c r="B77" s="21"/>
       <c r="C77" s="22"/>
@@ -9283,7 +9292,7 @@
       <c r="M77" s="23"/>
       <c r="N77" s="18"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="18"/>
       <c r="B78" s="21"/>
       <c r="C78" s="22"/>
@@ -9299,7 +9308,7 @@
       <c r="M78" s="23"/>
       <c r="N78" s="18"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="18"/>
       <c r="B79" s="21"/>
       <c r="C79" s="22"/>
@@ -9315,7 +9324,7 @@
       <c r="M79" s="23"/>
       <c r="N79" s="18"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="18"/>
       <c r="B80" s="21"/>
       <c r="C80" s="22"/>
@@ -9331,7 +9340,7 @@
       <c r="M80" s="23"/>
       <c r="N80" s="18"/>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="18"/>
       <c r="B81" s="21"/>
       <c r="C81" s="22"/>
@@ -9347,7 +9356,7 @@
       <c r="M81" s="23"/>
       <c r="N81" s="18"/>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="18"/>
       <c r="B82" s="21"/>
       <c r="C82" s="22"/>
@@ -9363,7 +9372,7 @@
       <c r="M82" s="23"/>
       <c r="N82" s="18"/>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="18"/>
       <c r="B83" s="21"/>
       <c r="C83" s="22"/>
@@ -9379,7 +9388,7 @@
       <c r="M83" s="23"/>
       <c r="N83" s="18"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="18"/>
       <c r="B84" s="21"/>
       <c r="C84" s="22"/>
@@ -9395,7 +9404,7 @@
       <c r="M84" s="23"/>
       <c r="N84" s="18"/>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="18"/>
       <c r="B85" s="21"/>
       <c r="C85" s="22"/>
@@ -9411,7 +9420,7 @@
       <c r="M85" s="23"/>
       <c r="N85" s="18"/>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="18"/>
       <c r="B86" s="21"/>
       <c r="C86" s="22"/>
@@ -9427,7 +9436,7 @@
       <c r="M86" s="23"/>
       <c r="N86" s="18"/>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="18"/>
       <c r="B87" s="21"/>
       <c r="C87" s="22"/>
@@ -9443,7 +9452,7 @@
       <c r="M87" s="23"/>
       <c r="N87" s="18"/>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="18"/>
       <c r="B88" s="21"/>
       <c r="C88" s="22"/>
@@ -9459,7 +9468,7 @@
       <c r="M88" s="23"/>
       <c r="N88" s="18"/>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="18"/>
       <c r="B89" s="21"/>
       <c r="C89" s="22"/>
@@ -9475,7 +9484,7 @@
       <c r="M89" s="23"/>
       <c r="N89" s="18"/>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="18"/>
       <c r="B90" s="21"/>
       <c r="C90" s="22"/>
@@ -9491,7 +9500,7 @@
       <c r="M90" s="23"/>
       <c r="N90" s="18"/>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="18"/>
       <c r="B91" s="21"/>
       <c r="C91" s="22"/>
@@ -9507,7 +9516,7 @@
       <c r="M91" s="23"/>
       <c r="N91" s="18"/>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="18"/>
       <c r="B92" s="21"/>
       <c r="C92" s="22"/>
@@ -9523,7 +9532,7 @@
       <c r="M92" s="23"/>
       <c r="N92" s="18"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="18"/>
       <c r="B93" s="21"/>
       <c r="C93" s="22"/>
@@ -9539,7 +9548,7 @@
       <c r="M93" s="23"/>
       <c r="N93" s="18"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="18"/>
       <c r="B94" s="21"/>
       <c r="C94" s="22"/>
@@ -9555,7 +9564,7 @@
       <c r="M94" s="23"/>
       <c r="N94" s="18"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="18"/>
       <c r="B95" s="21"/>
       <c r="C95" s="22"/>
@@ -9571,7 +9580,7 @@
       <c r="M95" s="23"/>
       <c r="N95" s="18"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="18"/>
       <c r="B96" s="21"/>
       <c r="C96" s="22"/>
@@ -9587,7 +9596,7 @@
       <c r="M96" s="23"/>
       <c r="N96" s="18"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="18"/>
       <c r="B97" s="21"/>
       <c r="C97" s="22"/>
@@ -9603,7 +9612,7 @@
       <c r="M97" s="23"/>
       <c r="N97" s="18"/>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="18"/>
       <c r="B98" s="21"/>
       <c r="C98" s="22"/>
@@ -9619,7 +9628,7 @@
       <c r="M98" s="23"/>
       <c r="N98" s="18"/>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="18"/>
       <c r="B99" s="21"/>
       <c r="C99" s="22"/>
@@ -9635,7 +9644,7 @@
       <c r="M99" s="23"/>
       <c r="N99" s="18"/>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="18"/>
       <c r="B100" s="21"/>
       <c r="C100" s="22"/>
@@ -9651,7 +9660,7 @@
       <c r="M100" s="23"/>
       <c r="N100" s="18"/>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="18"/>
       <c r="B101" s="21"/>
       <c r="C101" s="22"/>
@@ -9667,7 +9676,7 @@
       <c r="M101" s="23"/>
       <c r="N101" s="18"/>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="18"/>
       <c r="B102" s="21"/>
       <c r="C102" s="22"/>
@@ -9683,7 +9692,7 @@
       <c r="M102" s="23"/>
       <c r="N102" s="18"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="18"/>
       <c r="B103" s="21"/>
       <c r="C103" s="22"/>
@@ -9699,7 +9708,7 @@
       <c r="M103" s="23"/>
       <c r="N103" s="18"/>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="18"/>
       <c r="B104" s="21"/>
       <c r="C104" s="22"/>
@@ -9715,7 +9724,7 @@
       <c r="M104" s="23"/>
       <c r="N104" s="18"/>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="18"/>
       <c r="B105" s="21"/>
       <c r="C105" s="22"/>
@@ -9731,7 +9740,7 @@
       <c r="M105" s="23"/>
       <c r="N105" s="18"/>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="18"/>
       <c r="B106" s="21"/>
       <c r="C106" s="22"/>
@@ -9747,7 +9756,7 @@
       <c r="M106" s="23"/>
       <c r="N106" s="18"/>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="18"/>
       <c r="B107" s="21"/>
       <c r="C107" s="22"/>
@@ -9763,7 +9772,7 @@
       <c r="M107" s="23"/>
       <c r="N107" s="18"/>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="18"/>
       <c r="B108" s="21"/>
       <c r="C108" s="22"/>
@@ -9779,7 +9788,7 @@
       <c r="M108" s="23"/>
       <c r="N108" s="18"/>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="18"/>
       <c r="B109" s="21"/>
       <c r="C109" s="22"/>
@@ -9795,7 +9804,7 @@
       <c r="M109" s="23"/>
       <c r="N109" s="18"/>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="18"/>
       <c r="B110" s="21"/>
       <c r="C110" s="22"/>
@@ -9811,7 +9820,7 @@
       <c r="M110" s="23"/>
       <c r="N110" s="18"/>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="18"/>
       <c r="B111" s="21"/>
       <c r="C111" s="22"/>
@@ -9827,7 +9836,7 @@
       <c r="M111" s="23"/>
       <c r="N111" s="18"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="18"/>
       <c r="B112" s="21"/>
       <c r="C112" s="22"/>
@@ -9843,7 +9852,7 @@
       <c r="M112" s="23"/>
       <c r="N112" s="18"/>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="18"/>
       <c r="B113" s="21"/>
       <c r="C113" s="22"/>
@@ -9859,7 +9868,7 @@
       <c r="M113" s="23"/>
       <c r="N113" s="18"/>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="18"/>
       <c r="B114" s="21"/>
       <c r="C114" s="22"/>
@@ -9875,7 +9884,7 @@
       <c r="M114" s="23"/>
       <c r="N114" s="18"/>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="18"/>
       <c r="B115" s="21"/>
       <c r="C115" s="22"/>
@@ -9891,7 +9900,7 @@
       <c r="M115" s="23"/>
       <c r="N115" s="18"/>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="18"/>
       <c r="B116" s="21"/>
       <c r="C116" s="22"/>
@@ -9907,7 +9916,7 @@
       <c r="M116" s="23"/>
       <c r="N116" s="18"/>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="18"/>
       <c r="B117" s="21"/>
       <c r="C117" s="22"/>
@@ -9923,7 +9932,7 @@
       <c r="M117" s="23"/>
       <c r="N117" s="18"/>
     </row>
-    <row r="118" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="18"/>
       <c r="B118" s="24"/>
       <c r="C118" s="25"/>
@@ -9939,7 +9948,7 @@
       <c r="M118" s="26"/>
       <c r="N118" s="18"/>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="18"/>
       <c r="B119" s="18"/>
       <c r="C119" s="18"/>
@@ -9979,6 +9988,9 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="F10 F11:F15" formula="1"/>
+  </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -9988,19 +10000,19 @@
   <dimension ref="A1:N119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C3"/>
+      <selection activeCell="F10" sqref="F10:F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="2" customWidth="1"/>
-    <col min="2" max="12" width="15.7109375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="59.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.7109375" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="1.7265625" style="2" customWidth="1"/>
+    <col min="2" max="12" width="15.7265625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="59.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="1.7265625" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18"/>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -10016,10 +10028,10 @@
       <c r="M1" s="18"/>
       <c r="N1" s="18"/>
     </row>
-    <row r="2" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18"/>
       <c r="B2" s="59" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C2" s="60"/>
       <c r="D2" s="61"/>
@@ -10034,10 +10046,10 @@
       <c r="M2" s="62"/>
       <c r="N2" s="18"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="18"/>
       <c r="B3" s="31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="33"/>
       <c r="D3" s="18"/>
@@ -10052,13 +10064,13 @@
       <c r="M3" s="18"/>
       <c r="N3" s="18"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="18"/>
       <c r="B4" s="29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
@@ -10072,13 +10084,13 @@
       <c r="M4" s="18"/>
       <c r="N4" s="18"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
       <c r="B5" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
@@ -10092,13 +10104,13 @@
       <c r="M5" s="18"/>
       <c r="N5" s="18"/>
     </row>
-    <row r="6" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="18"/>
@@ -10112,10 +10124,10 @@
       <c r="M6" s="18"/>
       <c r="N6" s="18"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
       <c r="B7" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" s="32"/>
       <c r="D7" s="32"/>
@@ -10130,25 +10142,25 @@
       <c r="M7" s="18"/>
       <c r="N7" s="18"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
       <c r="B8" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
@@ -10158,13 +10170,13 @@
       <c r="M8" s="18"/>
       <c r="N8" s="18"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
       <c r="B9" s="21">
         <v>1</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" s="22">
         <f>COUNTIF($E$19:$E$118,B9)</f>
@@ -10190,13 +10202,13 @@
       <c r="M9" s="18"/>
       <c r="N9" s="18"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
       <c r="B10" s="21">
         <v>2</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D10" s="22">
         <f t="shared" ref="D10:D15" si="0">COUNTIF($E$19:$E$118,B10)</f>
@@ -10222,13 +10234,13 @@
       <c r="M10" s="18"/>
       <c r="N10" s="18"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
       <c r="B11" s="21">
         <v>3</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D11" s="22">
         <f t="shared" si="0"/>
@@ -10254,13 +10266,13 @@
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="21">
         <v>4</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D12" s="22">
         <f t="shared" si="0"/>
@@ -10286,13 +10298,13 @@
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
       <c r="B13" s="21">
         <v>5</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D13" s="22">
         <f t="shared" si="0"/>
@@ -10318,13 +10330,13 @@
       <c r="M13" s="18"/>
       <c r="N13" s="18"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
       <c r="B14" s="21">
         <v>6</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D14" s="22">
         <f t="shared" si="0"/>
@@ -10350,13 +10362,13 @@
       <c r="M14" s="18"/>
       <c r="N14" s="18"/>
     </row>
-    <row r="15" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18"/>
       <c r="B15" s="24">
         <v>7</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D15" s="25">
         <f t="shared" si="0"/>
@@ -10382,10 +10394,10 @@
       <c r="M15" s="18"/>
       <c r="N15" s="18"/>
     </row>
-    <row r="16" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18"/>
       <c r="B16" s="63" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C16" s="64"/>
       <c r="D16" s="64"/>
@@ -10400,10 +10412,10 @@
       <c r="M16" s="66"/>
       <c r="N16" s="18"/>
     </row>
-    <row r="17" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
       <c r="B17" s="56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" s="57"/>
       <c r="D17" s="57"/>
@@ -10418,90 +10430,90 @@
       <c r="M17" s="58"/>
       <c r="N17" s="18"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
       <c r="B18" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M18" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="N18" s="18"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
       <c r="B19" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="22" t="s">
-        <v>64</v>
-      </c>
       <c r="D19" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E19" s="22">
         <v>1</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I19" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J19" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K19" s="22">
         <v>1</v>
       </c>
       <c r="L19" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M19" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N19" s="18"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
       <c r="B20" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
@@ -10509,19 +10521,19 @@
         <v>2</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J20" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K20" s="22">
         <v>1</v>
@@ -10530,10 +10542,10 @@
       <c r="M20" s="23"/>
       <c r="N20" s="18"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
       <c r="B21" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
@@ -10541,13 +10553,13 @@
         <v>3</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I21" s="22"/>
       <c r="J21" s="22"/>
@@ -10556,10 +10568,10 @@
       <c r="M21" s="23"/>
       <c r="N21" s="18"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
       <c r="B22" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
@@ -10567,10 +10579,10 @@
         <v>4</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H22" s="22"/>
       <c r="I22" s="22"/>
@@ -10580,10 +10592,10 @@
       <c r="M22" s="23"/>
       <c r="N22" s="18"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
       <c r="B23" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
@@ -10591,7 +10603,7 @@
         <v>5</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G23" s="22"/>
       <c r="H23" s="22"/>
@@ -10602,10 +10614,10 @@
       <c r="M23" s="23"/>
       <c r="N23" s="18"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="18"/>
       <c r="B24" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
@@ -10613,7 +10625,7 @@
         <v>6</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G24" s="22"/>
       <c r="H24" s="22"/>
@@ -10624,10 +10636,10 @@
       <c r="M24" s="23"/>
       <c r="N24" s="18"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
       <c r="B25" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
@@ -10635,7 +10647,7 @@
         <v>7</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G25" s="22"/>
       <c r="H25" s="22"/>
@@ -10646,7 +10658,7 @@
       <c r="M25" s="23"/>
       <c r="N25" s="18"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="18"/>
       <c r="B26" s="21"/>
       <c r="C26" s="22"/>
@@ -10662,7 +10674,7 @@
       <c r="M26" s="23"/>
       <c r="N26" s="18"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
       <c r="B27" s="21"/>
       <c r="C27" s="22"/>
@@ -10678,7 +10690,7 @@
       <c r="M27" s="23"/>
       <c r="N27" s="18"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="18"/>
       <c r="B28" s="21"/>
       <c r="C28" s="22"/>
@@ -10694,7 +10706,7 @@
       <c r="M28" s="23"/>
       <c r="N28" s="18"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="18"/>
       <c r="B29" s="21"/>
       <c r="C29" s="22"/>
@@ -10710,7 +10722,7 @@
       <c r="M29" s="23"/>
       <c r="N29" s="18"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
       <c r="B30" s="21"/>
       <c r="C30" s="22"/>
@@ -10726,7 +10738,7 @@
       <c r="M30" s="23"/>
       <c r="N30" s="18"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="18"/>
       <c r="B31" s="21"/>
       <c r="C31" s="22"/>
@@ -10742,7 +10754,7 @@
       <c r="M31" s="23"/>
       <c r="N31" s="18"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="18"/>
       <c r="B32" s="21"/>
       <c r="C32" s="22"/>
@@ -10758,7 +10770,7 @@
       <c r="M32" s="23"/>
       <c r="N32" s="18"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="18"/>
       <c r="B33" s="21"/>
       <c r="C33" s="22"/>
@@ -10774,7 +10786,7 @@
       <c r="M33" s="23"/>
       <c r="N33" s="18"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
       <c r="B34" s="21"/>
       <c r="C34" s="22"/>
@@ -10790,7 +10802,7 @@
       <c r="M34" s="23"/>
       <c r="N34" s="18"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="18"/>
       <c r="B35" s="21"/>
       <c r="C35" s="22"/>
@@ -10806,7 +10818,7 @@
       <c r="M35" s="23"/>
       <c r="N35" s="18"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="18"/>
       <c r="B36" s="21"/>
       <c r="C36" s="22"/>
@@ -10822,7 +10834,7 @@
       <c r="M36" s="23"/>
       <c r="N36" s="18"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="18"/>
       <c r="B37" s="21"/>
       <c r="C37" s="22"/>
@@ -10838,7 +10850,7 @@
       <c r="M37" s="23"/>
       <c r="N37" s="18"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="18"/>
       <c r="B38" s="21"/>
       <c r="C38" s="22"/>
@@ -10854,7 +10866,7 @@
       <c r="M38" s="23"/>
       <c r="N38" s="18"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="18"/>
       <c r="B39" s="21"/>
       <c r="C39" s="22"/>
@@ -10870,7 +10882,7 @@
       <c r="M39" s="23"/>
       <c r="N39" s="18"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="18"/>
       <c r="B40" s="21"/>
       <c r="C40" s="22"/>
@@ -10886,7 +10898,7 @@
       <c r="M40" s="23"/>
       <c r="N40" s="18"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="18"/>
       <c r="B41" s="21"/>
       <c r="C41" s="22"/>
@@ -10902,7 +10914,7 @@
       <c r="M41" s="23"/>
       <c r="N41" s="18"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="18"/>
       <c r="B42" s="21"/>
       <c r="C42" s="22"/>
@@ -10918,7 +10930,7 @@
       <c r="M42" s="23"/>
       <c r="N42" s="18"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="18"/>
       <c r="B43" s="21"/>
       <c r="C43" s="22"/>
@@ -10934,7 +10946,7 @@
       <c r="M43" s="23"/>
       <c r="N43" s="18"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="18"/>
       <c r="B44" s="21"/>
       <c r="C44" s="22"/>
@@ -10950,7 +10962,7 @@
       <c r="M44" s="23"/>
       <c r="N44" s="18"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="18"/>
       <c r="B45" s="21"/>
       <c r="C45" s="22"/>
@@ -10966,7 +10978,7 @@
       <c r="M45" s="23"/>
       <c r="N45" s="18"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="18"/>
       <c r="B46" s="21"/>
       <c r="C46" s="22"/>
@@ -10982,7 +10994,7 @@
       <c r="M46" s="23"/>
       <c r="N46" s="18"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="18"/>
       <c r="B47" s="21"/>
       <c r="C47" s="22"/>
@@ -10998,7 +11010,7 @@
       <c r="M47" s="23"/>
       <c r="N47" s="18"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="18"/>
       <c r="B48" s="21"/>
       <c r="C48" s="22"/>
@@ -11014,7 +11026,7 @@
       <c r="M48" s="23"/>
       <c r="N48" s="18"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="18"/>
       <c r="B49" s="21"/>
       <c r="C49" s="22"/>
@@ -11030,7 +11042,7 @@
       <c r="M49" s="23"/>
       <c r="N49" s="18"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="18"/>
       <c r="B50" s="21"/>
       <c r="C50" s="22"/>
@@ -11046,7 +11058,7 @@
       <c r="M50" s="23"/>
       <c r="N50" s="18"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="18"/>
       <c r="B51" s="21"/>
       <c r="C51" s="22"/>
@@ -11062,7 +11074,7 @@
       <c r="M51" s="23"/>
       <c r="N51" s="18"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="18"/>
       <c r="B52" s="21"/>
       <c r="C52" s="22"/>
@@ -11078,7 +11090,7 @@
       <c r="M52" s="23"/>
       <c r="N52" s="18"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="18"/>
       <c r="B53" s="21"/>
       <c r="C53" s="22"/>
@@ -11094,7 +11106,7 @@
       <c r="M53" s="23"/>
       <c r="N53" s="18"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="18"/>
       <c r="B54" s="21"/>
       <c r="C54" s="22"/>
@@ -11110,7 +11122,7 @@
       <c r="M54" s="23"/>
       <c r="N54" s="18"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="18"/>
       <c r="B55" s="21"/>
       <c r="C55" s="22"/>
@@ -11126,7 +11138,7 @@
       <c r="M55" s="23"/>
       <c r="N55" s="18"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="18"/>
       <c r="B56" s="21"/>
       <c r="C56" s="22"/>
@@ -11142,7 +11154,7 @@
       <c r="M56" s="23"/>
       <c r="N56" s="18"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="18"/>
       <c r="B57" s="21"/>
       <c r="C57" s="22"/>
@@ -11158,7 +11170,7 @@
       <c r="M57" s="23"/>
       <c r="N57" s="18"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="18"/>
       <c r="B58" s="21"/>
       <c r="C58" s="22"/>
@@ -11174,7 +11186,7 @@
       <c r="M58" s="23"/>
       <c r="N58" s="18"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="18"/>
       <c r="B59" s="21"/>
       <c r="C59" s="22"/>
@@ -11190,7 +11202,7 @@
       <c r="M59" s="23"/>
       <c r="N59" s="18"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="18"/>
       <c r="B60" s="21"/>
       <c r="C60" s="22"/>
@@ -11206,7 +11218,7 @@
       <c r="M60" s="23"/>
       <c r="N60" s="18"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="18"/>
       <c r="B61" s="21"/>
       <c r="C61" s="22"/>
@@ -11222,7 +11234,7 @@
       <c r="M61" s="23"/>
       <c r="N61" s="18"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="18"/>
       <c r="B62" s="21"/>
       <c r="C62" s="22"/>
@@ -11238,7 +11250,7 @@
       <c r="M62" s="23"/>
       <c r="N62" s="18"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="18"/>
       <c r="B63" s="21"/>
       <c r="C63" s="22"/>
@@ -11254,7 +11266,7 @@
       <c r="M63" s="23"/>
       <c r="N63" s="18"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="18"/>
       <c r="B64" s="21"/>
       <c r="C64" s="22"/>
@@ -11270,7 +11282,7 @@
       <c r="M64" s="23"/>
       <c r="N64" s="18"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="18"/>
       <c r="B65" s="21"/>
       <c r="C65" s="22"/>
@@ -11286,7 +11298,7 @@
       <c r="M65" s="23"/>
       <c r="N65" s="18"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="18"/>
       <c r="B66" s="21"/>
       <c r="C66" s="22"/>
@@ -11302,7 +11314,7 @@
       <c r="M66" s="23"/>
       <c r="N66" s="18"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="18"/>
       <c r="B67" s="21"/>
       <c r="C67" s="22"/>
@@ -11318,7 +11330,7 @@
       <c r="M67" s="23"/>
       <c r="N67" s="18"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="18"/>
       <c r="B68" s="21"/>
       <c r="C68" s="22"/>
@@ -11334,7 +11346,7 @@
       <c r="M68" s="23"/>
       <c r="N68" s="18"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="18"/>
       <c r="B69" s="21"/>
       <c r="C69" s="22"/>
@@ -11350,7 +11362,7 @@
       <c r="M69" s="23"/>
       <c r="N69" s="18"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="18"/>
       <c r="B70" s="21"/>
       <c r="C70" s="22"/>
@@ -11366,7 +11378,7 @@
       <c r="M70" s="23"/>
       <c r="N70" s="18"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="18"/>
       <c r="B71" s="21"/>
       <c r="C71" s="22"/>
@@ -11382,7 +11394,7 @@
       <c r="M71" s="23"/>
       <c r="N71" s="18"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="18"/>
       <c r="B72" s="21"/>
       <c r="C72" s="22"/>
@@ -11398,7 +11410,7 @@
       <c r="M72" s="23"/>
       <c r="N72" s="18"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="18"/>
       <c r="B73" s="21"/>
       <c r="C73" s="22"/>
@@ -11414,7 +11426,7 @@
       <c r="M73" s="23"/>
       <c r="N73" s="18"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="18"/>
       <c r="B74" s="21"/>
       <c r="C74" s="22"/>
@@ -11430,7 +11442,7 @@
       <c r="M74" s="23"/>
       <c r="N74" s="18"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="18"/>
       <c r="B75" s="21"/>
       <c r="C75" s="22"/>
@@ -11446,7 +11458,7 @@
       <c r="M75" s="23"/>
       <c r="N75" s="18"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="18"/>
       <c r="B76" s="21"/>
       <c r="C76" s="22"/>
@@ -11462,7 +11474,7 @@
       <c r="M76" s="23"/>
       <c r="N76" s="18"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="18"/>
       <c r="B77" s="21"/>
       <c r="C77" s="22"/>
@@ -11478,7 +11490,7 @@
       <c r="M77" s="23"/>
       <c r="N77" s="18"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="18"/>
       <c r="B78" s="21"/>
       <c r="C78" s="22"/>
@@ -11494,7 +11506,7 @@
       <c r="M78" s="23"/>
       <c r="N78" s="18"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="18"/>
       <c r="B79" s="21"/>
       <c r="C79" s="22"/>
@@ -11510,7 +11522,7 @@
       <c r="M79" s="23"/>
       <c r="N79" s="18"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="18"/>
       <c r="B80" s="21"/>
       <c r="C80" s="22"/>
@@ -11526,7 +11538,7 @@
       <c r="M80" s="23"/>
       <c r="N80" s="18"/>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="18"/>
       <c r="B81" s="21"/>
       <c r="C81" s="22"/>
@@ -11542,7 +11554,7 @@
       <c r="M81" s="23"/>
       <c r="N81" s="18"/>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="18"/>
       <c r="B82" s="21"/>
       <c r="C82" s="22"/>
@@ -11558,7 +11570,7 @@
       <c r="M82" s="23"/>
       <c r="N82" s="18"/>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="18"/>
       <c r="B83" s="21"/>
       <c r="C83" s="22"/>
@@ -11574,7 +11586,7 @@
       <c r="M83" s="23"/>
       <c r="N83" s="18"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="18"/>
       <c r="B84" s="21"/>
       <c r="C84" s="22"/>
@@ -11590,7 +11602,7 @@
       <c r="M84" s="23"/>
       <c r="N84" s="18"/>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="18"/>
       <c r="B85" s="21"/>
       <c r="C85" s="22"/>
@@ -11606,7 +11618,7 @@
       <c r="M85" s="23"/>
       <c r="N85" s="18"/>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="18"/>
       <c r="B86" s="21"/>
       <c r="C86" s="22"/>
@@ -11622,7 +11634,7 @@
       <c r="M86" s="23"/>
       <c r="N86" s="18"/>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="18"/>
       <c r="B87" s="21"/>
       <c r="C87" s="22"/>
@@ -11638,7 +11650,7 @@
       <c r="M87" s="23"/>
       <c r="N87" s="18"/>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="18"/>
       <c r="B88" s="21"/>
       <c r="C88" s="22"/>
@@ -11654,7 +11666,7 @@
       <c r="M88" s="23"/>
       <c r="N88" s="18"/>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="18"/>
       <c r="B89" s="21"/>
       <c r="C89" s="22"/>
@@ -11670,7 +11682,7 @@
       <c r="M89" s="23"/>
       <c r="N89" s="18"/>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="18"/>
       <c r="B90" s="21"/>
       <c r="C90" s="22"/>
@@ -11686,7 +11698,7 @@
       <c r="M90" s="23"/>
       <c r="N90" s="18"/>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="18"/>
       <c r="B91" s="21"/>
       <c r="C91" s="22"/>
@@ -11702,7 +11714,7 @@
       <c r="M91" s="23"/>
       <c r="N91" s="18"/>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="18"/>
       <c r="B92" s="21"/>
       <c r="C92" s="22"/>
@@ -11718,7 +11730,7 @@
       <c r="M92" s="23"/>
       <c r="N92" s="18"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="18"/>
       <c r="B93" s="21"/>
       <c r="C93" s="22"/>
@@ -11734,7 +11746,7 @@
       <c r="M93" s="23"/>
       <c r="N93" s="18"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="18"/>
       <c r="B94" s="21"/>
       <c r="C94" s="22"/>
@@ -11750,7 +11762,7 @@
       <c r="M94" s="23"/>
       <c r="N94" s="18"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="18"/>
       <c r="B95" s="21"/>
       <c r="C95" s="22"/>
@@ -11766,7 +11778,7 @@
       <c r="M95" s="23"/>
       <c r="N95" s="18"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="18"/>
       <c r="B96" s="21"/>
       <c r="C96" s="22"/>
@@ -11782,7 +11794,7 @@
       <c r="M96" s="23"/>
       <c r="N96" s="18"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="18"/>
       <c r="B97" s="21"/>
       <c r="C97" s="22"/>
@@ -11798,7 +11810,7 @@
       <c r="M97" s="23"/>
       <c r="N97" s="18"/>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="18"/>
       <c r="B98" s="21"/>
       <c r="C98" s="22"/>
@@ -11814,7 +11826,7 @@
       <c r="M98" s="23"/>
       <c r="N98" s="18"/>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="18"/>
       <c r="B99" s="21"/>
       <c r="C99" s="22"/>
@@ -11830,7 +11842,7 @@
       <c r="M99" s="23"/>
       <c r="N99" s="18"/>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="18"/>
       <c r="B100" s="21"/>
       <c r="C100" s="22"/>
@@ -11846,7 +11858,7 @@
       <c r="M100" s="23"/>
       <c r="N100" s="18"/>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="18"/>
       <c r="B101" s="21"/>
       <c r="C101" s="22"/>
@@ -11862,7 +11874,7 @@
       <c r="M101" s="23"/>
       <c r="N101" s="18"/>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="18"/>
       <c r="B102" s="21"/>
       <c r="C102" s="22"/>
@@ -11878,7 +11890,7 @@
       <c r="M102" s="23"/>
       <c r="N102" s="18"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="18"/>
       <c r="B103" s="21"/>
       <c r="C103" s="22"/>
@@ -11894,7 +11906,7 @@
       <c r="M103" s="23"/>
       <c r="N103" s="18"/>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="18"/>
       <c r="B104" s="21"/>
       <c r="C104" s="22"/>
@@ -11910,7 +11922,7 @@
       <c r="M104" s="23"/>
       <c r="N104" s="18"/>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="18"/>
       <c r="B105" s="21"/>
       <c r="C105" s="22"/>
@@ -11926,7 +11938,7 @@
       <c r="M105" s="23"/>
       <c r="N105" s="18"/>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="18"/>
       <c r="B106" s="21"/>
       <c r="C106" s="22"/>
@@ -11942,7 +11954,7 @@
       <c r="M106" s="23"/>
       <c r="N106" s="18"/>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="18"/>
       <c r="B107" s="21"/>
       <c r="C107" s="22"/>
@@ -11958,7 +11970,7 @@
       <c r="M107" s="23"/>
       <c r="N107" s="18"/>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="18"/>
       <c r="B108" s="21"/>
       <c r="C108" s="22"/>
@@ -11974,7 +11986,7 @@
       <c r="M108" s="23"/>
       <c r="N108" s="18"/>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="18"/>
       <c r="B109" s="21"/>
       <c r="C109" s="22"/>
@@ -11990,7 +12002,7 @@
       <c r="M109" s="23"/>
       <c r="N109" s="18"/>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="18"/>
       <c r="B110" s="21"/>
       <c r="C110" s="22"/>
@@ -12006,7 +12018,7 @@
       <c r="M110" s="23"/>
       <c r="N110" s="18"/>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="18"/>
       <c r="B111" s="21"/>
       <c r="C111" s="22"/>
@@ -12022,7 +12034,7 @@
       <c r="M111" s="23"/>
       <c r="N111" s="18"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="18"/>
       <c r="B112" s="21"/>
       <c r="C112" s="22"/>
@@ -12038,7 +12050,7 @@
       <c r="M112" s="23"/>
       <c r="N112" s="18"/>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="18"/>
       <c r="B113" s="21"/>
       <c r="C113" s="22"/>
@@ -12054,7 +12066,7 @@
       <c r="M113" s="23"/>
       <c r="N113" s="18"/>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="18"/>
       <c r="B114" s="21"/>
       <c r="C114" s="22"/>
@@ -12070,7 +12082,7 @@
       <c r="M114" s="23"/>
       <c r="N114" s="18"/>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="18"/>
       <c r="B115" s="21"/>
       <c r="C115" s="22"/>
@@ -12086,7 +12098,7 @@
       <c r="M115" s="23"/>
       <c r="N115" s="18"/>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="18"/>
       <c r="B116" s="21"/>
       <c r="C116" s="22"/>
@@ -12102,7 +12114,7 @@
       <c r="M116" s="23"/>
       <c r="N116" s="18"/>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="18"/>
       <c r="B117" s="21"/>
       <c r="C117" s="22"/>
@@ -12118,7 +12130,7 @@
       <c r="M117" s="23"/>
       <c r="N117" s="18"/>
     </row>
-    <row r="118" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="18"/>
       <c r="B118" s="24"/>
       <c r="C118" s="25"/>
@@ -12134,7 +12146,7 @@
       <c r="M118" s="26"/>
       <c r="N118" s="18"/>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="18"/>
       <c r="B119" s="18"/>
       <c r="C119" s="18"/>
@@ -12174,6 +12186,9 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="F10:F15" formula="1"/>
+  </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -12183,19 +12198,19 @@
   <dimension ref="A1:N119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C3"/>
+      <selection activeCell="B16" sqref="B16:M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="2" customWidth="1"/>
-    <col min="2" max="12" width="15.7109375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="59.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.7109375" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="1.7265625" style="2" customWidth="1"/>
+    <col min="2" max="12" width="15.7265625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="59.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="1.7265625" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18"/>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -12211,10 +12226,10 @@
       <c r="M1" s="18"/>
       <c r="N1" s="18"/>
     </row>
-    <row r="2" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18"/>
       <c r="B2" s="59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" s="60"/>
       <c r="D2" s="61"/>
@@ -12229,10 +12244,10 @@
       <c r="M2" s="62"/>
       <c r="N2" s="18"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="18"/>
       <c r="B3" s="31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="33"/>
       <c r="D3" s="18"/>
@@ -12247,13 +12262,13 @@
       <c r="M3" s="18"/>
       <c r="N3" s="18"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="18"/>
       <c r="B4" s="29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
@@ -12267,13 +12282,13 @@
       <c r="M4" s="18"/>
       <c r="N4" s="18"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
       <c r="B5" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
@@ -12287,13 +12302,13 @@
       <c r="M5" s="18"/>
       <c r="N5" s="18"/>
     </row>
-    <row r="6" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="18"/>
@@ -12307,10 +12322,10 @@
       <c r="M6" s="18"/>
       <c r="N6" s="18"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
       <c r="B7" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" s="32"/>
       <c r="D7" s="32"/>
@@ -12325,25 +12340,25 @@
       <c r="M7" s="18"/>
       <c r="N7" s="18"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
       <c r="B8" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
@@ -12353,13 +12368,13 @@
       <c r="M8" s="18"/>
       <c r="N8" s="18"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
       <c r="B9" s="21">
         <v>1</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" s="22">
         <f>COUNTIF($E$19:$E$118,B9)</f>
@@ -12385,13 +12400,13 @@
       <c r="M9" s="18"/>
       <c r="N9" s="18"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
       <c r="B10" s="21">
         <v>2</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D10" s="22">
         <f t="shared" ref="D10:D15" si="0">COUNTIF($E$19:$E$118,B10)</f>
@@ -12417,13 +12432,13 @@
       <c r="M10" s="18"/>
       <c r="N10" s="18"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
       <c r="B11" s="21">
         <v>3</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D11" s="22">
         <f t="shared" si="0"/>
@@ -12449,13 +12464,13 @@
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="21">
         <v>4</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D12" s="22">
         <f t="shared" si="0"/>
@@ -12481,13 +12496,13 @@
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
       <c r="B13" s="21">
         <v>5</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D13" s="22">
         <f t="shared" si="0"/>
@@ -12513,13 +12528,13 @@
       <c r="M13" s="18"/>
       <c r="N13" s="18"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
       <c r="B14" s="21">
         <v>6</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D14" s="22">
         <f t="shared" si="0"/>
@@ -12545,13 +12560,13 @@
       <c r="M14" s="18"/>
       <c r="N14" s="18"/>
     </row>
-    <row r="15" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18"/>
       <c r="B15" s="24">
         <v>7</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D15" s="25">
         <f t="shared" si="0"/>
@@ -12577,10 +12592,10 @@
       <c r="M15" s="18"/>
       <c r="N15" s="18"/>
     </row>
-    <row r="16" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18"/>
       <c r="B16" s="63" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C16" s="64"/>
       <c r="D16" s="64"/>
@@ -12595,10 +12610,10 @@
       <c r="M16" s="66"/>
       <c r="N16" s="18"/>
     </row>
-    <row r="17" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
       <c r="B17" s="56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" s="57"/>
       <c r="D17" s="57"/>
@@ -12613,90 +12628,90 @@
       <c r="M17" s="58"/>
       <c r="N17" s="18"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
       <c r="B18" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M18" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="N18" s="18"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
       <c r="B19" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="22" t="s">
-        <v>64</v>
-      </c>
       <c r="D19" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E19" s="22">
         <v>1</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I19" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J19" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K19" s="22">
         <v>1</v>
       </c>
       <c r="L19" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M19" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N19" s="18"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
       <c r="B20" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
@@ -12704,19 +12719,19 @@
         <v>2</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J20" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K20" s="22">
         <v>1</v>
@@ -12725,10 +12740,10 @@
       <c r="M20" s="23"/>
       <c r="N20" s="18"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
       <c r="B21" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
@@ -12736,13 +12751,13 @@
         <v>3</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I21" s="22"/>
       <c r="J21" s="22"/>
@@ -12751,10 +12766,10 @@
       <c r="M21" s="23"/>
       <c r="N21" s="18"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
       <c r="B22" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
@@ -12762,10 +12777,10 @@
         <v>4</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H22" s="22"/>
       <c r="I22" s="22"/>
@@ -12775,10 +12790,10 @@
       <c r="M22" s="23"/>
       <c r="N22" s="18"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
       <c r="B23" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
@@ -12786,7 +12801,7 @@
         <v>5</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G23" s="22"/>
       <c r="H23" s="22"/>
@@ -12797,10 +12812,10 @@
       <c r="M23" s="23"/>
       <c r="N23" s="18"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="18"/>
       <c r="B24" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
@@ -12808,7 +12823,7 @@
         <v>6</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G24" s="22"/>
       <c r="H24" s="22"/>
@@ -12819,10 +12834,10 @@
       <c r="M24" s="23"/>
       <c r="N24" s="18"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
       <c r="B25" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
@@ -12830,7 +12845,7 @@
         <v>7</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G25" s="22"/>
       <c r="H25" s="22"/>
@@ -12841,7 +12856,7 @@
       <c r="M25" s="23"/>
       <c r="N25" s="18"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="18"/>
       <c r="B26" s="21"/>
       <c r="C26" s="22"/>
@@ -12857,7 +12872,7 @@
       <c r="M26" s="23"/>
       <c r="N26" s="18"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
       <c r="B27" s="21"/>
       <c r="C27" s="22"/>
@@ -12873,7 +12888,7 @@
       <c r="M27" s="23"/>
       <c r="N27" s="18"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="18"/>
       <c r="B28" s="21"/>
       <c r="C28" s="22"/>
@@ -12889,7 +12904,7 @@
       <c r="M28" s="23"/>
       <c r="N28" s="18"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="18"/>
       <c r="B29" s="21"/>
       <c r="C29" s="22"/>
@@ -12905,7 +12920,7 @@
       <c r="M29" s="23"/>
       <c r="N29" s="18"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
       <c r="B30" s="21"/>
       <c r="C30" s="22"/>
@@ -12921,7 +12936,7 @@
       <c r="M30" s="23"/>
       <c r="N30" s="18"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="18"/>
       <c r="B31" s="21"/>
       <c r="C31" s="22"/>
@@ -12937,7 +12952,7 @@
       <c r="M31" s="23"/>
       <c r="N31" s="18"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="18"/>
       <c r="B32" s="21"/>
       <c r="C32" s="22"/>
@@ -12953,7 +12968,7 @@
       <c r="M32" s="23"/>
       <c r="N32" s="18"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="18"/>
       <c r="B33" s="21"/>
       <c r="C33" s="22"/>
@@ -12969,7 +12984,7 @@
       <c r="M33" s="23"/>
       <c r="N33" s="18"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
       <c r="B34" s="21"/>
       <c r="C34" s="22"/>
@@ -12985,7 +13000,7 @@
       <c r="M34" s="23"/>
       <c r="N34" s="18"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="18"/>
       <c r="B35" s="21"/>
       <c r="C35" s="22"/>
@@ -13001,7 +13016,7 @@
       <c r="M35" s="23"/>
       <c r="N35" s="18"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="18"/>
       <c r="B36" s="21"/>
       <c r="C36" s="22"/>
@@ -13017,7 +13032,7 @@
       <c r="M36" s="23"/>
       <c r="N36" s="18"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="18"/>
       <c r="B37" s="21"/>
       <c r="C37" s="22"/>
@@ -13033,7 +13048,7 @@
       <c r="M37" s="23"/>
       <c r="N37" s="18"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="18"/>
       <c r="B38" s="21"/>
       <c r="C38" s="22"/>
@@ -13049,7 +13064,7 @@
       <c r="M38" s="23"/>
       <c r="N38" s="18"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="18"/>
       <c r="B39" s="21"/>
       <c r="C39" s="22"/>
@@ -13065,7 +13080,7 @@
       <c r="M39" s="23"/>
       <c r="N39" s="18"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="18"/>
       <c r="B40" s="21"/>
       <c r="C40" s="22"/>
@@ -13081,7 +13096,7 @@
       <c r="M40" s="23"/>
       <c r="N40" s="18"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="18"/>
       <c r="B41" s="21"/>
       <c r="C41" s="22"/>
@@ -13097,7 +13112,7 @@
       <c r="M41" s="23"/>
       <c r="N41" s="18"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="18"/>
       <c r="B42" s="21"/>
       <c r="C42" s="22"/>
@@ -13113,7 +13128,7 @@
       <c r="M42" s="23"/>
       <c r="N42" s="18"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="18"/>
       <c r="B43" s="21"/>
       <c r="C43" s="22"/>
@@ -13129,7 +13144,7 @@
       <c r="M43" s="23"/>
       <c r="N43" s="18"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="18"/>
       <c r="B44" s="21"/>
       <c r="C44" s="22"/>
@@ -13145,7 +13160,7 @@
       <c r="M44" s="23"/>
       <c r="N44" s="18"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="18"/>
       <c r="B45" s="21"/>
       <c r="C45" s="22"/>
@@ -13161,7 +13176,7 @@
       <c r="M45" s="23"/>
       <c r="N45" s="18"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="18"/>
       <c r="B46" s="21"/>
       <c r="C46" s="22"/>
@@ -13177,7 +13192,7 @@
       <c r="M46" s="23"/>
       <c r="N46" s="18"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="18"/>
       <c r="B47" s="21"/>
       <c r="C47" s="22"/>
@@ -13193,7 +13208,7 @@
       <c r="M47" s="23"/>
       <c r="N47" s="18"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="18"/>
       <c r="B48" s="21"/>
       <c r="C48" s="22"/>
@@ -13209,7 +13224,7 @@
       <c r="M48" s="23"/>
       <c r="N48" s="18"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="18"/>
       <c r="B49" s="21"/>
       <c r="C49" s="22"/>
@@ -13225,7 +13240,7 @@
       <c r="M49" s="23"/>
       <c r="N49" s="18"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="18"/>
       <c r="B50" s="21"/>
       <c r="C50" s="22"/>
@@ -13241,7 +13256,7 @@
       <c r="M50" s="23"/>
       <c r="N50" s="18"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="18"/>
       <c r="B51" s="21"/>
       <c r="C51" s="22"/>
@@ -13257,7 +13272,7 @@
       <c r="M51" s="23"/>
       <c r="N51" s="18"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="18"/>
       <c r="B52" s="21"/>
       <c r="C52" s="22"/>
@@ -13273,7 +13288,7 @@
       <c r="M52" s="23"/>
       <c r="N52" s="18"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="18"/>
       <c r="B53" s="21"/>
       <c r="C53" s="22"/>
@@ -13289,7 +13304,7 @@
       <c r="M53" s="23"/>
       <c r="N53" s="18"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="18"/>
       <c r="B54" s="21"/>
       <c r="C54" s="22"/>
@@ -13305,7 +13320,7 @@
       <c r="M54" s="23"/>
       <c r="N54" s="18"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="18"/>
       <c r="B55" s="21"/>
       <c r="C55" s="22"/>
@@ -13321,7 +13336,7 @@
       <c r="M55" s="23"/>
       <c r="N55" s="18"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="18"/>
       <c r="B56" s="21"/>
       <c r="C56" s="22"/>
@@ -13337,7 +13352,7 @@
       <c r="M56" s="23"/>
       <c r="N56" s="18"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="18"/>
       <c r="B57" s="21"/>
       <c r="C57" s="22"/>
@@ -13353,7 +13368,7 @@
       <c r="M57" s="23"/>
       <c r="N57" s="18"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="18"/>
       <c r="B58" s="21"/>
       <c r="C58" s="22"/>
@@ -13369,7 +13384,7 @@
       <c r="M58" s="23"/>
       <c r="N58" s="18"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="18"/>
       <c r="B59" s="21"/>
       <c r="C59" s="22"/>
@@ -13385,7 +13400,7 @@
       <c r="M59" s="23"/>
       <c r="N59" s="18"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="18"/>
       <c r="B60" s="21"/>
       <c r="C60" s="22"/>
@@ -13401,7 +13416,7 @@
       <c r="M60" s="23"/>
       <c r="N60" s="18"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="18"/>
       <c r="B61" s="21"/>
       <c r="C61" s="22"/>
@@ -13417,7 +13432,7 @@
       <c r="M61" s="23"/>
       <c r="N61" s="18"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="18"/>
       <c r="B62" s="21"/>
       <c r="C62" s="22"/>
@@ -13433,7 +13448,7 @@
       <c r="M62" s="23"/>
       <c r="N62" s="18"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="18"/>
       <c r="B63" s="21"/>
       <c r="C63" s="22"/>
@@ -13449,7 +13464,7 @@
       <c r="M63" s="23"/>
       <c r="N63" s="18"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="18"/>
       <c r="B64" s="21"/>
       <c r="C64" s="22"/>
@@ -13465,7 +13480,7 @@
       <c r="M64" s="23"/>
       <c r="N64" s="18"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="18"/>
       <c r="B65" s="21"/>
       <c r="C65" s="22"/>
@@ -13481,7 +13496,7 @@
       <c r="M65" s="23"/>
       <c r="N65" s="18"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="18"/>
       <c r="B66" s="21"/>
       <c r="C66" s="22"/>
@@ -13497,7 +13512,7 @@
       <c r="M66" s="23"/>
       <c r="N66" s="18"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="18"/>
       <c r="B67" s="21"/>
       <c r="C67" s="22"/>
@@ -13513,7 +13528,7 @@
       <c r="M67" s="23"/>
       <c r="N67" s="18"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="18"/>
       <c r="B68" s="21"/>
       <c r="C68" s="22"/>
@@ -13529,7 +13544,7 @@
       <c r="M68" s="23"/>
       <c r="N68" s="18"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="18"/>
       <c r="B69" s="21"/>
       <c r="C69" s="22"/>
@@ -13545,7 +13560,7 @@
       <c r="M69" s="23"/>
       <c r="N69" s="18"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="18"/>
       <c r="B70" s="21"/>
       <c r="C70" s="22"/>
@@ -13561,7 +13576,7 @@
       <c r="M70" s="23"/>
       <c r="N70" s="18"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="18"/>
       <c r="B71" s="21"/>
       <c r="C71" s="22"/>
@@ -13577,7 +13592,7 @@
       <c r="M71" s="23"/>
       <c r="N71" s="18"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="18"/>
       <c r="B72" s="21"/>
       <c r="C72" s="22"/>
@@ -13593,7 +13608,7 @@
       <c r="M72" s="23"/>
       <c r="N72" s="18"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="18"/>
       <c r="B73" s="21"/>
       <c r="C73" s="22"/>
@@ -13609,7 +13624,7 @@
       <c r="M73" s="23"/>
       <c r="N73" s="18"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="18"/>
       <c r="B74" s="21"/>
       <c r="C74" s="22"/>
@@ -13625,7 +13640,7 @@
       <c r="M74" s="23"/>
       <c r="N74" s="18"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="18"/>
       <c r="B75" s="21"/>
       <c r="C75" s="22"/>
@@ -13641,7 +13656,7 @@
       <c r="M75" s="23"/>
       <c r="N75" s="18"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="18"/>
       <c r="B76" s="21"/>
       <c r="C76" s="22"/>
@@ -13657,7 +13672,7 @@
       <c r="M76" s="23"/>
       <c r="N76" s="18"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="18"/>
       <c r="B77" s="21"/>
       <c r="C77" s="22"/>
@@ -13673,7 +13688,7 @@
       <c r="M77" s="23"/>
       <c r="N77" s="18"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="18"/>
       <c r="B78" s="21"/>
       <c r="C78" s="22"/>
@@ -13689,7 +13704,7 @@
       <c r="M78" s="23"/>
       <c r="N78" s="18"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="18"/>
       <c r="B79" s="21"/>
       <c r="C79" s="22"/>
@@ -13705,7 +13720,7 @@
       <c r="M79" s="23"/>
       <c r="N79" s="18"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="18"/>
       <c r="B80" s="21"/>
       <c r="C80" s="22"/>
@@ -13721,7 +13736,7 @@
       <c r="M80" s="23"/>
       <c r="N80" s="18"/>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="18"/>
       <c r="B81" s="21"/>
       <c r="C81" s="22"/>
@@ -13737,7 +13752,7 @@
       <c r="M81" s="23"/>
       <c r="N81" s="18"/>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="18"/>
       <c r="B82" s="21"/>
       <c r="C82" s="22"/>
@@ -13753,7 +13768,7 @@
       <c r="M82" s="23"/>
       <c r="N82" s="18"/>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="18"/>
       <c r="B83" s="21"/>
       <c r="C83" s="22"/>
@@ -13769,7 +13784,7 @@
       <c r="M83" s="23"/>
       <c r="N83" s="18"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="18"/>
       <c r="B84" s="21"/>
       <c r="C84" s="22"/>
@@ -13785,7 +13800,7 @@
       <c r="M84" s="23"/>
       <c r="N84" s="18"/>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="18"/>
       <c r="B85" s="21"/>
       <c r="C85" s="22"/>
@@ -13801,7 +13816,7 @@
       <c r="M85" s="23"/>
       <c r="N85" s="18"/>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="18"/>
       <c r="B86" s="21"/>
       <c r="C86" s="22"/>
@@ -13817,7 +13832,7 @@
       <c r="M86" s="23"/>
       <c r="N86" s="18"/>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="18"/>
       <c r="B87" s="21"/>
       <c r="C87" s="22"/>
@@ -13833,7 +13848,7 @@
       <c r="M87" s="23"/>
       <c r="N87" s="18"/>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="18"/>
       <c r="B88" s="21"/>
       <c r="C88" s="22"/>
@@ -13849,7 +13864,7 @@
       <c r="M88" s="23"/>
       <c r="N88" s="18"/>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="18"/>
       <c r="B89" s="21"/>
       <c r="C89" s="22"/>
@@ -13865,7 +13880,7 @@
       <c r="M89" s="23"/>
       <c r="N89" s="18"/>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="18"/>
       <c r="B90" s="21"/>
       <c r="C90" s="22"/>
@@ -13881,7 +13896,7 @@
       <c r="M90" s="23"/>
       <c r="N90" s="18"/>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="18"/>
       <c r="B91" s="21"/>
       <c r="C91" s="22"/>
@@ -13897,7 +13912,7 @@
       <c r="M91" s="23"/>
       <c r="N91" s="18"/>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="18"/>
       <c r="B92" s="21"/>
       <c r="C92" s="22"/>
@@ -13913,7 +13928,7 @@
       <c r="M92" s="23"/>
       <c r="N92" s="18"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="18"/>
       <c r="B93" s="21"/>
       <c r="C93" s="22"/>
@@ -13929,7 +13944,7 @@
       <c r="M93" s="23"/>
       <c r="N93" s="18"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="18"/>
       <c r="B94" s="21"/>
       <c r="C94" s="22"/>
@@ -13945,7 +13960,7 @@
       <c r="M94" s="23"/>
       <c r="N94" s="18"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="18"/>
       <c r="B95" s="21"/>
       <c r="C95" s="22"/>
@@ -13961,7 +13976,7 @@
       <c r="M95" s="23"/>
       <c r="N95" s="18"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="18"/>
       <c r="B96" s="21"/>
       <c r="C96" s="22"/>
@@ -13977,7 +13992,7 @@
       <c r="M96" s="23"/>
       <c r="N96" s="18"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="18"/>
       <c r="B97" s="21"/>
       <c r="C97" s="22"/>
@@ -13993,7 +14008,7 @@
       <c r="M97" s="23"/>
       <c r="N97" s="18"/>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="18"/>
       <c r="B98" s="21"/>
       <c r="C98" s="22"/>
@@ -14009,7 +14024,7 @@
       <c r="M98" s="23"/>
       <c r="N98" s="18"/>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="18"/>
       <c r="B99" s="21"/>
       <c r="C99" s="22"/>
@@ -14025,7 +14040,7 @@
       <c r="M99" s="23"/>
       <c r="N99" s="18"/>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="18"/>
       <c r="B100" s="21"/>
       <c r="C100" s="22"/>
@@ -14041,7 +14056,7 @@
       <c r="M100" s="23"/>
       <c r="N100" s="18"/>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="18"/>
       <c r="B101" s="21"/>
       <c r="C101" s="22"/>
@@ -14057,7 +14072,7 @@
       <c r="M101" s="23"/>
       <c r="N101" s="18"/>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="18"/>
       <c r="B102" s="21"/>
       <c r="C102" s="22"/>
@@ -14073,7 +14088,7 @@
       <c r="M102" s="23"/>
       <c r="N102" s="18"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="18"/>
       <c r="B103" s="21"/>
       <c r="C103" s="22"/>
@@ -14089,7 +14104,7 @@
       <c r="M103" s="23"/>
       <c r="N103" s="18"/>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="18"/>
       <c r="B104" s="21"/>
       <c r="C104" s="22"/>
@@ -14105,7 +14120,7 @@
       <c r="M104" s="23"/>
       <c r="N104" s="18"/>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="18"/>
       <c r="B105" s="21"/>
       <c r="C105" s="22"/>
@@ -14121,7 +14136,7 @@
       <c r="M105" s="23"/>
       <c r="N105" s="18"/>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="18"/>
       <c r="B106" s="21"/>
       <c r="C106" s="22"/>
@@ -14137,7 +14152,7 @@
       <c r="M106" s="23"/>
       <c r="N106" s="18"/>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="18"/>
       <c r="B107" s="21"/>
       <c r="C107" s="22"/>
@@ -14153,7 +14168,7 @@
       <c r="M107" s="23"/>
       <c r="N107" s="18"/>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="18"/>
       <c r="B108" s="21"/>
       <c r="C108" s="22"/>
@@ -14169,7 +14184,7 @@
       <c r="M108" s="23"/>
       <c r="N108" s="18"/>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="18"/>
       <c r="B109" s="21"/>
       <c r="C109" s="22"/>
@@ -14185,7 +14200,7 @@
       <c r="M109" s="23"/>
       <c r="N109" s="18"/>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="18"/>
       <c r="B110" s="21"/>
       <c r="C110" s="22"/>
@@ -14201,7 +14216,7 @@
       <c r="M110" s="23"/>
       <c r="N110" s="18"/>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="18"/>
       <c r="B111" s="21"/>
       <c r="C111" s="22"/>
@@ -14217,7 +14232,7 @@
       <c r="M111" s="23"/>
       <c r="N111" s="18"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="18"/>
       <c r="B112" s="21"/>
       <c r="C112" s="22"/>
@@ -14233,7 +14248,7 @@
       <c r="M112" s="23"/>
       <c r="N112" s="18"/>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="18"/>
       <c r="B113" s="21"/>
       <c r="C113" s="22"/>
@@ -14249,7 +14264,7 @@
       <c r="M113" s="23"/>
       <c r="N113" s="18"/>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="18"/>
       <c r="B114" s="21"/>
       <c r="C114" s="22"/>
@@ -14265,7 +14280,7 @@
       <c r="M114" s="23"/>
       <c r="N114" s="18"/>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="18"/>
       <c r="B115" s="21"/>
       <c r="C115" s="22"/>
@@ -14281,7 +14296,7 @@
       <c r="M115" s="23"/>
       <c r="N115" s="18"/>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="18"/>
       <c r="B116" s="21"/>
       <c r="C116" s="22"/>
@@ -14297,7 +14312,7 @@
       <c r="M116" s="23"/>
       <c r="N116" s="18"/>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="18"/>
       <c r="B117" s="21"/>
       <c r="C117" s="22"/>
@@ -14313,7 +14328,7 @@
       <c r="M117" s="23"/>
       <c r="N117" s="18"/>
     </row>
-    <row r="118" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="18"/>
       <c r="B118" s="24"/>
       <c r="C118" s="25"/>
@@ -14329,7 +14344,7 @@
       <c r="M118" s="26"/>
       <c r="N118" s="18"/>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="18"/>
       <c r="B119" s="18"/>
       <c r="C119" s="18"/>
@@ -14369,6 +14384,9 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="F10:F15" formula="1"/>
+  </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -14378,19 +14396,19 @@
   <dimension ref="A1:N119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C3"/>
+      <selection activeCell="F10" sqref="F10:F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="2" customWidth="1"/>
-    <col min="2" max="12" width="15.7109375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="59.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.7109375" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="1.7265625" style="2" customWidth="1"/>
+    <col min="2" max="12" width="15.7265625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="59.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="1.7265625" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18"/>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -14406,10 +14424,10 @@
       <c r="M1" s="18"/>
       <c r="N1" s="18"/>
     </row>
-    <row r="2" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18"/>
       <c r="B2" s="59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C2" s="60"/>
       <c r="D2" s="61"/>
@@ -14424,10 +14442,10 @@
       <c r="M2" s="62"/>
       <c r="N2" s="18"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="18"/>
       <c r="B3" s="31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="33"/>
       <c r="D3" s="18"/>
@@ -14442,13 +14460,13 @@
       <c r="M3" s="18"/>
       <c r="N3" s="18"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="18"/>
       <c r="B4" s="29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
@@ -14462,13 +14480,13 @@
       <c r="M4" s="18"/>
       <c r="N4" s="18"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
       <c r="B5" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
@@ -14482,13 +14500,13 @@
       <c r="M5" s="18"/>
       <c r="N5" s="18"/>
     </row>
-    <row r="6" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="18"/>
@@ -14502,10 +14520,10 @@
       <c r="M6" s="18"/>
       <c r="N6" s="18"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
       <c r="B7" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" s="32"/>
       <c r="D7" s="32"/>
@@ -14520,25 +14538,25 @@
       <c r="M7" s="18"/>
       <c r="N7" s="18"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
       <c r="B8" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
@@ -14548,13 +14566,13 @@
       <c r="M8" s="18"/>
       <c r="N8" s="18"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
       <c r="B9" s="21">
         <v>1</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" s="22">
         <f>COUNTIF($E$19:$E$118,B9)</f>
@@ -14580,13 +14598,13 @@
       <c r="M9" s="18"/>
       <c r="N9" s="18"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
       <c r="B10" s="21">
         <v>2</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D10" s="22">
         <f t="shared" ref="D10:D15" si="0">COUNTIF($E$19:$E$118,B10)</f>
@@ -14612,13 +14630,13 @@
       <c r="M10" s="18"/>
       <c r="N10" s="18"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
       <c r="B11" s="21">
         <v>3</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D11" s="22">
         <f t="shared" si="0"/>
@@ -14644,13 +14662,13 @@
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="21">
         <v>4</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D12" s="22">
         <f t="shared" si="0"/>
@@ -14676,13 +14694,13 @@
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
       <c r="B13" s="21">
         <v>5</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D13" s="22">
         <f t="shared" si="0"/>
@@ -14708,13 +14726,13 @@
       <c r="M13" s="18"/>
       <c r="N13" s="18"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
       <c r="B14" s="21">
         <v>6</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D14" s="22">
         <f t="shared" si="0"/>
@@ -14740,13 +14758,13 @@
       <c r="M14" s="18"/>
       <c r="N14" s="18"/>
     </row>
-    <row r="15" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18"/>
       <c r="B15" s="24">
         <v>7</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D15" s="25">
         <f t="shared" si="0"/>
@@ -14772,10 +14790,10 @@
       <c r="M15" s="18"/>
       <c r="N15" s="18"/>
     </row>
-    <row r="16" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18"/>
       <c r="B16" s="63" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C16" s="64"/>
       <c r="D16" s="64"/>
@@ -14790,10 +14808,10 @@
       <c r="M16" s="66"/>
       <c r="N16" s="18"/>
     </row>
-    <row r="17" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
       <c r="B17" s="56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" s="57"/>
       <c r="D17" s="57"/>
@@ -14808,90 +14826,90 @@
       <c r="M17" s="58"/>
       <c r="N17" s="18"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
       <c r="B18" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M18" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="N18" s="18"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
       <c r="B19" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="22" t="s">
-        <v>64</v>
-      </c>
       <c r="D19" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E19" s="22">
         <v>1</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I19" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J19" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K19" s="22">
         <v>1</v>
       </c>
       <c r="L19" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M19" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N19" s="18"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
       <c r="B20" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
@@ -14899,19 +14917,19 @@
         <v>2</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J20" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K20" s="22">
         <v>1</v>
@@ -14920,10 +14938,10 @@
       <c r="M20" s="23"/>
       <c r="N20" s="18"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
       <c r="B21" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
@@ -14931,13 +14949,13 @@
         <v>3</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I21" s="22"/>
       <c r="J21" s="22"/>
@@ -14946,10 +14964,10 @@
       <c r="M21" s="23"/>
       <c r="N21" s="18"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
       <c r="B22" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
@@ -14957,10 +14975,10 @@
         <v>4</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H22" s="22"/>
       <c r="I22" s="22"/>
@@ -14970,10 +14988,10 @@
       <c r="M22" s="23"/>
       <c r="N22" s="18"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
       <c r="B23" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
@@ -14981,7 +14999,7 @@
         <v>5</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G23" s="22"/>
       <c r="H23" s="22"/>
@@ -14992,10 +15010,10 @@
       <c r="M23" s="23"/>
       <c r="N23" s="18"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="18"/>
       <c r="B24" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
@@ -15003,7 +15021,7 @@
         <v>6</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G24" s="22"/>
       <c r="H24" s="22"/>
@@ -15014,10 +15032,10 @@
       <c r="M24" s="23"/>
       <c r="N24" s="18"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
       <c r="B25" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
@@ -15025,7 +15043,7 @@
         <v>7</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G25" s="22"/>
       <c r="H25" s="22"/>
@@ -15036,7 +15054,7 @@
       <c r="M25" s="23"/>
       <c r="N25" s="18"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="18"/>
       <c r="B26" s="21"/>
       <c r="C26" s="22"/>
@@ -15052,7 +15070,7 @@
       <c r="M26" s="23"/>
       <c r="N26" s="18"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
       <c r="B27" s="21"/>
       <c r="C27" s="22"/>
@@ -15068,7 +15086,7 @@
       <c r="M27" s="23"/>
       <c r="N27" s="18"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="18"/>
       <c r="B28" s="21"/>
       <c r="C28" s="22"/>
@@ -15084,7 +15102,7 @@
       <c r="M28" s="23"/>
       <c r="N28" s="18"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="18"/>
       <c r="B29" s="21"/>
       <c r="C29" s="22"/>
@@ -15100,7 +15118,7 @@
       <c r="M29" s="23"/>
       <c r="N29" s="18"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
       <c r="B30" s="21"/>
       <c r="C30" s="22"/>
@@ -15116,7 +15134,7 @@
       <c r="M30" s="23"/>
       <c r="N30" s="18"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="18"/>
       <c r="B31" s="21"/>
       <c r="C31" s="22"/>
@@ -15132,7 +15150,7 @@
       <c r="M31" s="23"/>
       <c r="N31" s="18"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="18"/>
       <c r="B32" s="21"/>
       <c r="C32" s="22"/>
@@ -15148,7 +15166,7 @@
       <c r="M32" s="23"/>
       <c r="N32" s="18"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="18"/>
       <c r="B33" s="21"/>
       <c r="C33" s="22"/>
@@ -15164,7 +15182,7 @@
       <c r="M33" s="23"/>
       <c r="N33" s="18"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
       <c r="B34" s="21"/>
       <c r="C34" s="22"/>
@@ -15180,7 +15198,7 @@
       <c r="M34" s="23"/>
       <c r="N34" s="18"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="18"/>
       <c r="B35" s="21"/>
       <c r="C35" s="22"/>
@@ -15196,7 +15214,7 @@
       <c r="M35" s="23"/>
       <c r="N35" s="18"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="18"/>
       <c r="B36" s="21"/>
       <c r="C36" s="22"/>
@@ -15212,7 +15230,7 @@
       <c r="M36" s="23"/>
       <c r="N36" s="18"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="18"/>
       <c r="B37" s="21"/>
       <c r="C37" s="22"/>
@@ -15228,7 +15246,7 @@
       <c r="M37" s="23"/>
       <c r="N37" s="18"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="18"/>
       <c r="B38" s="21"/>
       <c r="C38" s="22"/>
@@ -15244,7 +15262,7 @@
       <c r="M38" s="23"/>
       <c r="N38" s="18"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="18"/>
       <c r="B39" s="21"/>
       <c r="C39" s="22"/>
@@ -15260,7 +15278,7 @@
       <c r="M39" s="23"/>
       <c r="N39" s="18"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="18"/>
       <c r="B40" s="21"/>
       <c r="C40" s="22"/>
@@ -15276,7 +15294,7 @@
       <c r="M40" s="23"/>
       <c r="N40" s="18"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="18"/>
       <c r="B41" s="21"/>
       <c r="C41" s="22"/>
@@ -15292,7 +15310,7 @@
       <c r="M41" s="23"/>
       <c r="N41" s="18"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="18"/>
       <c r="B42" s="21"/>
       <c r="C42" s="22"/>
@@ -15308,7 +15326,7 @@
       <c r="M42" s="23"/>
       <c r="N42" s="18"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="18"/>
       <c r="B43" s="21"/>
       <c r="C43" s="22"/>
@@ -15324,7 +15342,7 @@
       <c r="M43" s="23"/>
       <c r="N43" s="18"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="18"/>
       <c r="B44" s="21"/>
       <c r="C44" s="22"/>
@@ -15340,7 +15358,7 @@
       <c r="M44" s="23"/>
       <c r="N44" s="18"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="18"/>
       <c r="B45" s="21"/>
       <c r="C45" s="22"/>
@@ -15356,7 +15374,7 @@
       <c r="M45" s="23"/>
       <c r="N45" s="18"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="18"/>
       <c r="B46" s="21"/>
       <c r="C46" s="22"/>
@@ -15372,7 +15390,7 @@
       <c r="M46" s="23"/>
       <c r="N46" s="18"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="18"/>
       <c r="B47" s="21"/>
       <c r="C47" s="22"/>
@@ -15388,7 +15406,7 @@
       <c r="M47" s="23"/>
       <c r="N47" s="18"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="18"/>
       <c r="B48" s="21"/>
       <c r="C48" s="22"/>
@@ -15404,7 +15422,7 @@
       <c r="M48" s="23"/>
       <c r="N48" s="18"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="18"/>
       <c r="B49" s="21"/>
       <c r="C49" s="22"/>
@@ -15420,7 +15438,7 @@
       <c r="M49" s="23"/>
       <c r="N49" s="18"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="18"/>
       <c r="B50" s="21"/>
       <c r="C50" s="22"/>
@@ -15436,7 +15454,7 @@
       <c r="M50" s="23"/>
       <c r="N50" s="18"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="18"/>
       <c r="B51" s="21"/>
       <c r="C51" s="22"/>
@@ -15452,7 +15470,7 @@
       <c r="M51" s="23"/>
       <c r="N51" s="18"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="18"/>
       <c r="B52" s="21"/>
       <c r="C52" s="22"/>
@@ -15468,7 +15486,7 @@
       <c r="M52" s="23"/>
       <c r="N52" s="18"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="18"/>
       <c r="B53" s="21"/>
       <c r="C53" s="22"/>
@@ -15484,7 +15502,7 @@
       <c r="M53" s="23"/>
       <c r="N53" s="18"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="18"/>
       <c r="B54" s="21"/>
       <c r="C54" s="22"/>
@@ -15500,7 +15518,7 @@
       <c r="M54" s="23"/>
       <c r="N54" s="18"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="18"/>
       <c r="B55" s="21"/>
       <c r="C55" s="22"/>
@@ -15516,7 +15534,7 @@
       <c r="M55" s="23"/>
       <c r="N55" s="18"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="18"/>
       <c r="B56" s="21"/>
       <c r="C56" s="22"/>
@@ -15532,7 +15550,7 @@
       <c r="M56" s="23"/>
       <c r="N56" s="18"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="18"/>
       <c r="B57" s="21"/>
       <c r="C57" s="22"/>
@@ -15548,7 +15566,7 @@
       <c r="M57" s="23"/>
       <c r="N57" s="18"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="18"/>
       <c r="B58" s="21"/>
       <c r="C58" s="22"/>
@@ -15564,7 +15582,7 @@
       <c r="M58" s="23"/>
       <c r="N58" s="18"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="18"/>
       <c r="B59" s="21"/>
       <c r="C59" s="22"/>
@@ -15580,7 +15598,7 @@
       <c r="M59" s="23"/>
       <c r="N59" s="18"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="18"/>
       <c r="B60" s="21"/>
       <c r="C60" s="22"/>
@@ -15596,7 +15614,7 @@
       <c r="M60" s="23"/>
       <c r="N60" s="18"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="18"/>
       <c r="B61" s="21"/>
       <c r="C61" s="22"/>
@@ -15612,7 +15630,7 @@
       <c r="M61" s="23"/>
       <c r="N61" s="18"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="18"/>
       <c r="B62" s="21"/>
       <c r="C62" s="22"/>
@@ -15628,7 +15646,7 @@
       <c r="M62" s="23"/>
       <c r="N62" s="18"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="18"/>
       <c r="B63" s="21"/>
       <c r="C63" s="22"/>
@@ -15644,7 +15662,7 @@
       <c r="M63" s="23"/>
       <c r="N63" s="18"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="18"/>
       <c r="B64" s="21"/>
       <c r="C64" s="22"/>
@@ -15660,7 +15678,7 @@
       <c r="M64" s="23"/>
       <c r="N64" s="18"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="18"/>
       <c r="B65" s="21"/>
       <c r="C65" s="22"/>
@@ -15676,7 +15694,7 @@
       <c r="M65" s="23"/>
       <c r="N65" s="18"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="18"/>
       <c r="B66" s="21"/>
       <c r="C66" s="22"/>
@@ -15692,7 +15710,7 @@
       <c r="M66" s="23"/>
       <c r="N66" s="18"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="18"/>
       <c r="B67" s="21"/>
       <c r="C67" s="22"/>
@@ -15708,7 +15726,7 @@
       <c r="M67" s="23"/>
       <c r="N67" s="18"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="18"/>
       <c r="B68" s="21"/>
       <c r="C68" s="22"/>
@@ -15724,7 +15742,7 @@
       <c r="M68" s="23"/>
       <c r="N68" s="18"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="18"/>
       <c r="B69" s="21"/>
       <c r="C69" s="22"/>
@@ -15740,7 +15758,7 @@
       <c r="M69" s="23"/>
       <c r="N69" s="18"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="18"/>
       <c r="B70" s="21"/>
       <c r="C70" s="22"/>
@@ -15756,7 +15774,7 @@
       <c r="M70" s="23"/>
       <c r="N70" s="18"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="18"/>
       <c r="B71" s="21"/>
       <c r="C71" s="22"/>
@@ -15772,7 +15790,7 @@
       <c r="M71" s="23"/>
       <c r="N71" s="18"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="18"/>
       <c r="B72" s="21"/>
       <c r="C72" s="22"/>
@@ -15788,7 +15806,7 @@
       <c r="M72" s="23"/>
       <c r="N72" s="18"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="18"/>
       <c r="B73" s="21"/>
       <c r="C73" s="22"/>
@@ -15804,7 +15822,7 @@
       <c r="M73" s="23"/>
       <c r="N73" s="18"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="18"/>
       <c r="B74" s="21"/>
       <c r="C74" s="22"/>
@@ -15820,7 +15838,7 @@
       <c r="M74" s="23"/>
       <c r="N74" s="18"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="18"/>
       <c r="B75" s="21"/>
       <c r="C75" s="22"/>
@@ -15836,7 +15854,7 @@
       <c r="M75" s="23"/>
       <c r="N75" s="18"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="18"/>
       <c r="B76" s="21"/>
       <c r="C76" s="22"/>
@@ -15852,7 +15870,7 @@
       <c r="M76" s="23"/>
       <c r="N76" s="18"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="18"/>
       <c r="B77" s="21"/>
       <c r="C77" s="22"/>
@@ -15868,7 +15886,7 @@
       <c r="M77" s="23"/>
       <c r="N77" s="18"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="18"/>
       <c r="B78" s="21"/>
       <c r="C78" s="22"/>
@@ -15884,7 +15902,7 @@
       <c r="M78" s="23"/>
       <c r="N78" s="18"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="18"/>
       <c r="B79" s="21"/>
       <c r="C79" s="22"/>
@@ -15900,7 +15918,7 @@
       <c r="M79" s="23"/>
       <c r="N79" s="18"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="18"/>
       <c r="B80" s="21"/>
       <c r="C80" s="22"/>
@@ -15916,7 +15934,7 @@
       <c r="M80" s="23"/>
       <c r="N80" s="18"/>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="18"/>
       <c r="B81" s="21"/>
       <c r="C81" s="22"/>
@@ -15932,7 +15950,7 @@
       <c r="M81" s="23"/>
       <c r="N81" s="18"/>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="18"/>
       <c r="B82" s="21"/>
       <c r="C82" s="22"/>
@@ -15948,7 +15966,7 @@
       <c r="M82" s="23"/>
       <c r="N82" s="18"/>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="18"/>
       <c r="B83" s="21"/>
       <c r="C83" s="22"/>
@@ -15964,7 +15982,7 @@
       <c r="M83" s="23"/>
       <c r="N83" s="18"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="18"/>
       <c r="B84" s="21"/>
       <c r="C84" s="22"/>
@@ -15980,7 +15998,7 @@
       <c r="M84" s="23"/>
       <c r="N84" s="18"/>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="18"/>
       <c r="B85" s="21"/>
       <c r="C85" s="22"/>
@@ -15996,7 +16014,7 @@
       <c r="M85" s="23"/>
       <c r="N85" s="18"/>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="18"/>
       <c r="B86" s="21"/>
       <c r="C86" s="22"/>
@@ -16012,7 +16030,7 @@
       <c r="M86" s="23"/>
       <c r="N86" s="18"/>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="18"/>
       <c r="B87" s="21"/>
       <c r="C87" s="22"/>
@@ -16028,7 +16046,7 @@
       <c r="M87" s="23"/>
       <c r="N87" s="18"/>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="18"/>
       <c r="B88" s="21"/>
       <c r="C88" s="22"/>
@@ -16044,7 +16062,7 @@
       <c r="M88" s="23"/>
       <c r="N88" s="18"/>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="18"/>
       <c r="B89" s="21"/>
       <c r="C89" s="22"/>
@@ -16060,7 +16078,7 @@
       <c r="M89" s="23"/>
       <c r="N89" s="18"/>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="18"/>
       <c r="B90" s="21"/>
       <c r="C90" s="22"/>
@@ -16076,7 +16094,7 @@
       <c r="M90" s="23"/>
       <c r="N90" s="18"/>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="18"/>
       <c r="B91" s="21"/>
       <c r="C91" s="22"/>
@@ -16092,7 +16110,7 @@
       <c r="M91" s="23"/>
       <c r="N91" s="18"/>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="18"/>
       <c r="B92" s="21"/>
       <c r="C92" s="22"/>
@@ -16108,7 +16126,7 @@
       <c r="M92" s="23"/>
       <c r="N92" s="18"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="18"/>
       <c r="B93" s="21"/>
       <c r="C93" s="22"/>
@@ -16124,7 +16142,7 @@
       <c r="M93" s="23"/>
       <c r="N93" s="18"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="18"/>
       <c r="B94" s="21"/>
       <c r="C94" s="22"/>
@@ -16140,7 +16158,7 @@
       <c r="M94" s="23"/>
       <c r="N94" s="18"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="18"/>
       <c r="B95" s="21"/>
       <c r="C95" s="22"/>
@@ -16156,7 +16174,7 @@
       <c r="M95" s="23"/>
       <c r="N95" s="18"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="18"/>
       <c r="B96" s="21"/>
       <c r="C96" s="22"/>
@@ -16172,7 +16190,7 @@
       <c r="M96" s="23"/>
       <c r="N96" s="18"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="18"/>
       <c r="B97" s="21"/>
       <c r="C97" s="22"/>
@@ -16188,7 +16206,7 @@
       <c r="M97" s="23"/>
       <c r="N97" s="18"/>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="18"/>
       <c r="B98" s="21"/>
       <c r="C98" s="22"/>
@@ -16204,7 +16222,7 @@
       <c r="M98" s="23"/>
       <c r="N98" s="18"/>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="18"/>
       <c r="B99" s="21"/>
       <c r="C99" s="22"/>
@@ -16220,7 +16238,7 @@
       <c r="M99" s="23"/>
       <c r="N99" s="18"/>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="18"/>
       <c r="B100" s="21"/>
       <c r="C100" s="22"/>
@@ -16236,7 +16254,7 @@
       <c r="M100" s="23"/>
       <c r="N100" s="18"/>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="18"/>
       <c r="B101" s="21"/>
       <c r="C101" s="22"/>
@@ -16252,7 +16270,7 @@
       <c r="M101" s="23"/>
       <c r="N101" s="18"/>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="18"/>
       <c r="B102" s="21"/>
       <c r="C102" s="22"/>
@@ -16268,7 +16286,7 @@
       <c r="M102" s="23"/>
       <c r="N102" s="18"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="18"/>
       <c r="B103" s="21"/>
       <c r="C103" s="22"/>
@@ -16284,7 +16302,7 @@
       <c r="M103" s="23"/>
       <c r="N103" s="18"/>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="18"/>
       <c r="B104" s="21"/>
       <c r="C104" s="22"/>
@@ -16300,7 +16318,7 @@
       <c r="M104" s="23"/>
       <c r="N104" s="18"/>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="18"/>
       <c r="B105" s="21"/>
       <c r="C105" s="22"/>
@@ -16316,7 +16334,7 @@
       <c r="M105" s="23"/>
       <c r="N105" s="18"/>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="18"/>
       <c r="B106" s="21"/>
       <c r="C106" s="22"/>
@@ -16332,7 +16350,7 @@
       <c r="M106" s="23"/>
       <c r="N106" s="18"/>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="18"/>
       <c r="B107" s="21"/>
       <c r="C107" s="22"/>
@@ -16348,7 +16366,7 @@
       <c r="M107" s="23"/>
       <c r="N107" s="18"/>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="18"/>
       <c r="B108" s="21"/>
       <c r="C108" s="22"/>
@@ -16364,7 +16382,7 @@
       <c r="M108" s="23"/>
       <c r="N108" s="18"/>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="18"/>
       <c r="B109" s="21"/>
       <c r="C109" s="22"/>
@@ -16380,7 +16398,7 @@
       <c r="M109" s="23"/>
       <c r="N109" s="18"/>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="18"/>
       <c r="B110" s="21"/>
       <c r="C110" s="22"/>
@@ -16396,7 +16414,7 @@
       <c r="M110" s="23"/>
       <c r="N110" s="18"/>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="18"/>
       <c r="B111" s="21"/>
       <c r="C111" s="22"/>
@@ -16412,7 +16430,7 @@
       <c r="M111" s="23"/>
       <c r="N111" s="18"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="18"/>
       <c r="B112" s="21"/>
       <c r="C112" s="22"/>
@@ -16428,7 +16446,7 @@
       <c r="M112" s="23"/>
       <c r="N112" s="18"/>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="18"/>
       <c r="B113" s="21"/>
       <c r="C113" s="22"/>
@@ -16444,7 +16462,7 @@
       <c r="M113" s="23"/>
       <c r="N113" s="18"/>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="18"/>
       <c r="B114" s="21"/>
       <c r="C114" s="22"/>
@@ -16460,7 +16478,7 @@
       <c r="M114" s="23"/>
       <c r="N114" s="18"/>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="18"/>
       <c r="B115" s="21"/>
       <c r="C115" s="22"/>
@@ -16476,7 +16494,7 @@
       <c r="M115" s="23"/>
       <c r="N115" s="18"/>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="18"/>
       <c r="B116" s="21"/>
       <c r="C116" s="22"/>
@@ -16492,7 +16510,7 @@
       <c r="M116" s="23"/>
       <c r="N116" s="18"/>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="18"/>
       <c r="B117" s="21"/>
       <c r="C117" s="22"/>
@@ -16508,7 +16526,7 @@
       <c r="M117" s="23"/>
       <c r="N117" s="18"/>
     </row>
-    <row r="118" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="18"/>
       <c r="B118" s="24"/>
       <c r="C118" s="25"/>
@@ -16524,7 +16542,7 @@
       <c r="M118" s="26"/>
       <c r="N118" s="18"/>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="18"/>
       <c r="B119" s="18"/>
       <c r="C119" s="18"/>
@@ -16564,6 +16582,9 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="F10:F15" formula="1"/>
+  </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>